--- a/development-notes.xlsx
+++ b/development-notes.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Developer\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711703BB-C733-4E0C-91B4-508D39CC4C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8823B0-15A6-486D-BB56-303982253E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Kafka" sheetId="2" r:id="rId2"/>
     <sheet name="Kubefwd" sheetId="3" r:id="rId3"/>
     <sheet name="Linux Commands" sheetId="4" r:id="rId4"/>
+    <sheet name="Python" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="669">
   <si>
     <t>fungsi</t>
   </si>
@@ -4817,6 +4818,120 @@
   </si>
   <si>
     <t xml:space="preserve">Move Folder / Directory </t>
+  </si>
+  <si>
+    <t>Get-ChildItem -Recurse -Force -Include "__pycache__" | Remove-Item -Recurse -Force</t>
+  </si>
+  <si>
+    <t>Remove cache python in windows</t>
+  </si>
+  <si>
+    <t>sudo apt install python3 python3-pip</t>
+  </si>
+  <si>
+    <t>python3 --version</t>
+  </si>
+  <si>
+    <t>pip --version</t>
+  </si>
+  <si>
+    <t># 1. Go to project folder</t>
+  </si>
+  <si>
+    <t>cd your_project_folder</t>
+  </si>
+  <si>
+    <t># 2. Create virtual env</t>
+  </si>
+  <si>
+    <t># 3. Activate it</t>
+  </si>
+  <si>
+    <t>source venv/bin/activate   # Linux/macOS</t>
+  </si>
+  <si>
+    <t>venv\Scripts\activate      # Windows</t>
+  </si>
+  <si>
+    <t>You'll know it's activated when your terminal looks like:</t>
+  </si>
+  <si>
+    <t>(venv) user@machine:~/your_project$</t>
+  </si>
+  <si>
+    <t>pip install "pydantic[email]"</t>
+  </si>
+  <si>
+    <t>delete __pycache__</t>
+  </si>
+  <si>
+    <t>find . -type d -name "__pycache__" -exec rm -r {} +</t>
+  </si>
+  <si>
+    <t># 4. Install dependencies</t>
+  </si>
+  <si>
+    <t># 5. Run the server</t>
+  </si>
+  <si>
+    <t>uvicorn app.main:app --host 0.0.0.0 --port 4001 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --ssl-keyfile=crt/server.key \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --ssl-certfile=crt/server.crt \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --reload</t>
+  </si>
+  <si>
+    <t>Use a production-grade WSGI/ASGI server:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gunicorn app.main:app \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    --bind 0.0.0.0:8000 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    --workers 4 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    --worker-class uvicorn.workers.UvicornWorker</t>
+  </si>
+  <si>
+    <t># kill</t>
+  </si>
+  <si>
+    <t>kill -9 $(lsof -t -i:3000)</t>
+  </si>
+  <si>
+    <t>http://localhost:3000</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Swagger UI (interactive API explorer)</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/docs</t>
+  </si>
+  <si>
+    <t>ReDoc (API documentation)</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/redoc</t>
+  </si>
+  <si>
+    <t>With docker-compose</t>
+  </si>
+  <si>
+    <t>docker-compose up --build</t>
   </si>
 </sst>
 </file>
@@ -5189,17 +5304,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5617,33 +5732,33 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.5" customHeight="1">
-      <c r="C24" s="47"/>
+      <c r="C24" s="49"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="C25" s="47"/>
+      <c r="C25" s="49"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="C26" s="47"/>
+      <c r="C26" s="49"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="C27" s="47"/>
+      <c r="C27" s="49"/>
     </row>
     <row r="28" spans="2:3" ht="29" customHeight="1">
-      <c r="C28" s="47"/>
+      <c r="C28" s="49"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="47"/>
+      <c r="C29" s="49"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="C30" s="47"/>
+      <c r="C30" s="49"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="C31" s="47"/>
+      <c r="C31" s="49"/>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" s="3" t="s">
@@ -5666,43 +5781,43 @@
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="47"/>
+      <c r="C41" s="49"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="47"/>
+      <c r="C42" s="49"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="47"/>
+      <c r="C43" s="49"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="47"/>
+      <c r="C44" s="49"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="47"/>
+      <c r="C45" s="49"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="47"/>
+      <c r="C46" s="49"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="47"/>
+      <c r="C47" s="49"/>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="47"/>
+      <c r="C48" s="49"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="C49" s="47"/>
+      <c r="C49" s="49"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="C50" s="47"/>
+      <c r="C50" s="49"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="17"/>
-      <c r="C51" s="48"/>
+      <c r="C51" s="50"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="15" t="s">
@@ -8791,7 +8906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639D6A1C-2407-46B7-9659-72D75688BA4A}">
   <dimension ref="B1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -8802,10 +8917,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>502</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="48" t="s">
         <v>503</v>
       </c>
     </row>
@@ -9209,6 +9324,230 @@
     <row r="128" spans="3:3">
       <c r="C128" s="12" t="s">
         <v>626</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60C995-DE2F-4EC0-AD4B-1AF09AFEC3B6}">
+  <dimension ref="B1:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="38.90625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="134.81640625" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="12" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="12" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="12" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="12" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="12" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="12" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="12" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="12" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="12" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="12" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="12" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="12" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="12" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="12" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="12" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="12" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="12" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="12" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="D50" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="D51" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="D52" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="12" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="12" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/development-notes.xlsx
+++ b/development-notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Developer\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8823B0-15A6-486D-BB56-303982253E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06467C66-4EA5-489A-AE61-5F42E535D53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="Kubefwd" sheetId="3" r:id="rId3"/>
     <sheet name="Linux Commands" sheetId="4" r:id="rId4"/>
     <sheet name="Python" sheetId="5" r:id="rId5"/>
+    <sheet name="PSQL" sheetId="6" r:id="rId6"/>
+    <sheet name="Kubernetes" sheetId="10" r:id="rId7"/>
+    <sheet name="Docker" sheetId="7" r:id="rId8"/>
+    <sheet name="Authentication" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="694">
   <si>
     <t>fungsi</t>
   </si>
@@ -4933,6 +4937,84 @@
   <si>
     <t>docker-compose up --build</t>
   </si>
+  <si>
+    <t>{"name":"source-jalaauthv2","config":{"connector.class":"io.confluent.connect.jdbc.JdbcSourceConnector","timestamp.column.name":"updated_at","dialect.name":"MySqlDatabaseDialect","incrementing.column.name":"id","connection.password":"dbjalaauth2","validate.non.null":"false","tasks.max":"1","connection.attempts":"10","table.types":"TABLE","table.whitelist":"dbjalaauth2.dbauth_users,dbjalaauth2.dbauth_oauth_clients","mode":"timestamp+incrementing","topic.prefix":"source-jalaauthv2","connection.max.retries":"100","connection.user":"dbjalaauth2","poll.interval.ms":"2000","value.converter.schemas.enable":"true","name":"source-jalaauthv2","numeric.mapping":"best_fit","connection.url":"jdbc:mysql://jalaauth2-db-0.jalaauth2-db.k8s-rbac.svc.cluster.local:3306/dbjalaauth2","value.converter":"org.apache.kafka.connect.json.JsonConverter","key.converter":"org.apache.kafka.connect.storage.StringConverter","pk.mode":"record_key","pk.fields":"id"},"tasks":[{"connector":"source-jalaauthv2","task":0}],"type":"source"}</t>
+  </si>
+  <si>
+    <t>Example Source</t>
+  </si>
+  <si>
+    <t>{"name":"sink-dbjalaauth2-to-dbelibrary","config":{"connector.class":"io.confluent.connect.jdbc.JdbcSinkConnector","table.name.format":"dbjalaauth2_auth_users","connection.password":"test1234","validate.non.null":"false","tasks.max":"1","topics":"source-jalaauthv2dbauth_users","delete.enabled":"false","auto.evolve":"true","connection.user":"user_dbelibrary","value.converter.schemas.enable":"true","name":"sink-dbjalaauth2-to-dbelibrary","auto.create":"true","connection.url":"jdbc:postgresql://elibrary-db-0.elibrary-db-service.k8s-api.svc.cluster.local:5432/dbelibrary","value.converter":"org.apache.kafka.connect.json.JsonConverter","insert.mode":"upsert","key.converter":"org.apache.kafka.connect.storage.StringConverter","pk.mode":"record_value","pk.fields":"id"},"tasks":[{"connector":"sink-dbjalaauth2-to-dbelibrary","task":0}],"type":"sink"}</t>
+  </si>
+  <si>
+    <t>Example Sink</t>
+  </si>
+  <si>
+    <t>"C:\Program Files\pgAdmin 4\runtime\psql.exe" "host=localho
+st port=5432 dbname=dbelibrary user=postgres sslmode=prefer connect_timeout=10" 2&gt;&gt;&amp;1psql (17.
+4) -f "D:\IT Developer\Microservices\ms-elibrary-backend\elibrary-article-backend\db\dbelibrar
+y.sql"</t>
+  </si>
+  <si>
+    <t>Import in windows</t>
+  </si>
+  <si>
+    <t>\i 'D:/IT Developer/Microservices/ms-elibrary-backend/elibrary-article-backend/db/dbelibrary.sql'</t>
+  </si>
+  <si>
+    <t>Import inside psql cli</t>
+  </si>
+  <si>
+    <t>https://docker-registry.jalaniagaelok.web.id/v2/_catalog</t>
+  </si>
+  <si>
+    <t>Link docker Registry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentication </t>
+  </si>
+  <si>
+    <t>{"auths":{"docker-registry.jalaniagaelok.web.id":{"username":"atoets","password":"Ty2s10o3","auth":"YXRvZXRzOlR5MnMxMG8z"}}}</t>
+  </si>
+  <si>
+    <t>Url / Commands / Tutorials</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Pasphrase</t>
+  </si>
+  <si>
+    <t>mDp@3awq</t>
+  </si>
+  <si>
+    <t>devl</t>
+  </si>
+  <si>
+    <t>Ty2s10o3</t>
+  </si>
+  <si>
+    <t>atoets</t>
+  </si>
+  <si>
+    <t>Tyas1003</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>df -h /mnt</t>
+  </si>
+  <si>
+    <t>Check folder size</t>
+  </si>
+  <si>
+    <t>du -sh /var/lib/postgresql/data</t>
+  </si>
 </sst>
 </file>
 
@@ -5058,7 +5140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -5169,12 +5251,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5310,6 +5403,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5633,8 +5752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115389D8-5A82-4357-A761-D97F13C3EBF0}">
   <dimension ref="B1:C682"/>
   <sheetViews>
-    <sheetView topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView topLeftCell="A591" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C599" sqref="C599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5732,33 +5851,33 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="59" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.5" customHeight="1">
-      <c r="C24" s="49"/>
+      <c r="C24" s="59"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="C25" s="49"/>
+      <c r="C25" s="59"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="C26" s="49"/>
+      <c r="C26" s="59"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="C27" s="49"/>
+      <c r="C27" s="59"/>
     </row>
     <row r="28" spans="2:3" ht="29" customHeight="1">
-      <c r="C28" s="49"/>
+      <c r="C28" s="59"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="49"/>
+      <c r="C29" s="59"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="C30" s="49"/>
+      <c r="C30" s="59"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="C31" s="49"/>
+      <c r="C31" s="59"/>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" s="3" t="s">
@@ -5781,43 +5900,43 @@
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="59" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="49"/>
+      <c r="C41" s="59"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="49"/>
+      <c r="C42" s="59"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="49"/>
+      <c r="C43" s="59"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="49"/>
+      <c r="C44" s="59"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="49"/>
+      <c r="C45" s="59"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="49"/>
+      <c r="C46" s="59"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="49"/>
+      <c r="C47" s="59"/>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="49"/>
+      <c r="C48" s="59"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="C49" s="49"/>
+      <c r="C49" s="59"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="C50" s="49"/>
+      <c r="C50" s="59"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="17"/>
-      <c r="C51" s="50"/>
+      <c r="C51" s="60"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="15" t="s">
@@ -8447,10 +8566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED613409-59F7-4B7A-B595-FACB16658F87}">
-  <dimension ref="B1:C122"/>
+  <dimension ref="B1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8484,6 +8603,9 @@
       </c>
     </row>
     <row r="5" spans="2:3">
+      <c r="B5" s="41" t="s">
+        <v>505</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>506</v>
       </c>
@@ -8514,6 +8636,9 @@
       </c>
     </row>
     <row r="12" spans="2:3">
+      <c r="B12" s="16" t="s">
+        <v>540</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>513</v>
       </c>
@@ -8539,19 +8664,22 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="41" t="s">
-        <v>505</v>
-      </c>
       <c r="C17" s="3" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="19" spans="2:3">
+      <c r="B19" s="16" t="s">
+        <v>512</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="20" spans="2:3">
+      <c r="B20" s="16" t="s">
+        <v>537</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>519</v>
       </c>
@@ -8562,6 +8690,9 @@
       </c>
     </row>
     <row r="23" spans="2:3">
+      <c r="B23" s="16" t="s">
+        <v>527</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>522</v>
       </c>
@@ -8587,6 +8718,9 @@
       </c>
     </row>
     <row r="29" spans="2:3">
+      <c r="B29" s="16" t="s">
+        <v>521</v>
+      </c>
       <c r="C29" s="3" t="s">
         <v>513</v>
       </c>
@@ -8602,6 +8736,9 @@
       </c>
     </row>
     <row r="33" spans="2:3">
+      <c r="B33" s="16" t="s">
+        <v>529</v>
+      </c>
       <c r="C33" s="3" t="s">
         <v>523</v>
       </c>
@@ -8627,6 +8764,9 @@
       </c>
     </row>
     <row r="39" spans="2:3">
+      <c r="B39" s="16" t="s">
+        <v>530</v>
+      </c>
       <c r="C39" s="3" t="s">
         <v>523</v>
       </c>
@@ -8642,6 +8782,9 @@
       </c>
     </row>
     <row r="42" spans="2:3">
+      <c r="B42" s="16" t="s">
+        <v>533</v>
+      </c>
       <c r="C42" s="3" t="s">
         <v>526</v>
       </c>
@@ -8652,9 +8795,6 @@
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="16" t="s">
-        <v>540</v>
-      </c>
       <c r="C46" s="3" t="s">
         <v>541</v>
       </c>
@@ -8665,78 +8805,55 @@
       </c>
     </row>
     <row r="48" spans="2:3">
+      <c r="B48" s="16" t="s">
+        <v>534</v>
+      </c>
       <c r="C48" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="2:3">
       <c r="C49" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="2:3">
       <c r="C50" s="3" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="52" spans="3:3" ht="29">
+    <row r="52" spans="2:3" ht="29">
       <c r="C52" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="2:3" ht="29">
+      <c r="B54" s="16" t="s">
+        <v>536</v>
+      </c>
       <c r="C54" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="16" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="16" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="16" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="16" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="16" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="16" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="16" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" ht="29">
-      <c r="B122" s="16" t="s">
-        <v>536</v>
+    <row r="56" spans="2:3" ht="159.5">
+      <c r="B56" s="50" t="s">
+        <v>670</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="130.5">
+      <c r="B58" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8744,8 +8861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B0D8-ABA7-483C-A39A-AC8B2DF5DBEC}">
   <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8906,7 +9023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639D6A1C-2407-46B7-9659-72D75688BA4A}">
   <dimension ref="B1:C128"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -9335,8 +9452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60C995-DE2F-4EC0-AD4B-1AF09AFEC3B6}">
   <dimension ref="B1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9553,4 +9670,188 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B241AB5B-9E8D-4A8A-AF31-19B6A43E3278}">
+  <dimension ref="B1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="50.7265625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="78.81640625" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="87">
+      <c r="B2" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120CCC8B-7F77-4248-9B3B-6896FAFAD032}">
+  <dimension ref="B1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="44" style="22" customWidth="1"/>
+    <col min="3" max="3" width="72.26953125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46823263-4C1F-4BCA-80B2-7A0FB13B4B6C}">
+  <dimension ref="B1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="29" style="51" customWidth="1"/>
+    <col min="3" max="3" width="49.26953125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="51" t="s">
+        <v>678</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="58">
+      <c r="B3" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1726B2-043F-4F9C-A7D9-6122F0CC1D1C}">
+  <dimension ref="B1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="34" style="22" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" customWidth="1"/>
+    <col min="4" max="4" width="37" style="12" customWidth="1"/>
+    <col min="5" max="6" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="55" t="s">
+        <v>682</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>685</v>
+      </c>
+      <c r="D2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="C3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{24C91F01-C48B-430F-83A6-6702C492417D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/development-notes.xlsx
+++ b/development-notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Developer\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06467C66-4EA5-489A-AE61-5F42E535D53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0E6461-51DA-409D-9B87-BDE907E08D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="700">
   <si>
     <t>fungsi</t>
   </si>
@@ -5014,6 +5014,24 @@
   </si>
   <si>
     <t>du -sh /var/lib/postgresql/data</t>
+  </si>
+  <si>
+    <t>KUBE_EDITOR="nano" kubectl edit storageclass nfs-client</t>
+  </si>
+  <si>
+    <t>Edit NFS</t>
+  </si>
+  <si>
+    <t>kubectl patch pvc elibrary-db-pvc \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -n &lt;namespace&gt; \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -p '{"spec": {"resources": {"requests": {"storage": "20Gi"}}}}'</t>
+  </si>
+  <si>
+    <t>Patch PVC Storage Size</t>
   </si>
 </sst>
 </file>
@@ -9718,10 +9736,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120CCC8B-7F77-4248-9B3B-6896FAFAD032}">
-  <dimension ref="B1:C4"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9739,7 +9757,7 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="54" t="s">
         <v>692</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -9749,6 +9767,32 @@
     <row r="4" spans="2:3">
       <c r="C4" s="12" t="s">
         <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="54" t="s">
+        <v>695</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="54" t="s">
+        <v>699</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="12" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/development-notes.xlsx
+++ b/development-notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Developer\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0E6461-51DA-409D-9B87-BDE907E08D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B3A13-3A22-4259-85EC-F8D2346E0DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Python" sheetId="5" r:id="rId5"/>
     <sheet name="PSQL" sheetId="6" r:id="rId6"/>
     <sheet name="Kubernetes" sheetId="10" r:id="rId7"/>
-    <sheet name="Docker" sheetId="7" r:id="rId8"/>
-    <sheet name="Authentication" sheetId="9" r:id="rId9"/>
+    <sheet name="JS" sheetId="11" r:id="rId8"/>
+    <sheet name="Docker" sheetId="7" r:id="rId9"/>
+    <sheet name="Authentication" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="728">
   <si>
     <t>fungsi</t>
   </si>
@@ -1570,9 +1571,6 @@
   </si>
   <si>
     <t>create namespace</t>
-  </si>
-  <si>
-    <t>save in jenkins, and copy id secret jenkins</t>
   </si>
   <si>
     <t>host kubernetes</t>
@@ -5032,6 +5030,389 @@
   </si>
   <si>
     <t>Patch PVC Storage Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add allowVolumeExpansion: true
+</t>
+  </si>
+  <si>
+    <t>Disable error Iframe.js adminLte</t>
+  </si>
+  <si>
+    <t>localStorage.setItem('AdminLTE:IFrame:Options',JSON.stringify({autoIframeMode:false,autoItemActive:false}))</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>nginx.ingress.kubernetes.io/auth-url : https://jalaera.com/services/account/api/user</t>
+  </si>
+  <si>
+    <t>nginx.ingress.kubernetes.io/server-snippet : set $auth_status ""; set $auth_header "";</t>
+  </si>
+  <si>
+    <t>nginx.ingress.kubernetes.io/auth-signin : https://jalaera.com/services/account/login</t>
+  </si>
+  <si>
+    <t>NGINX Ingress Auth Anotations</t>
+  </si>
+  <si>
+    <t>Get deadlock list</t>
+  </si>
+  <si>
+    <t>Kill deadlock list</t>
+  </si>
+  <si>
+    <t>SELECT pg_terminate_backend(blocking_locks.pid)
+FROM pg_locks blocked_locks
+JOIN pg_stat_activity blocked ON blocked_locks.pid = blocked.pid
+JOIN pg_locks blocking_locks
+  ON blocked_locks.locktype = blocking_locks.locktype
+  AND blocked_locks.database IS NOT DISTINCT FROM blocking_locks.database
+  AND blocked_locks.relation IS NOT DISTINCT FROM blocking_locks.relation
+  AND blocked_locks.page IS NOT DISTINCT FROM blocking_locks.page
+  AND blocked_locks.tuple IS NOT DISTINCT FROM blocking_locks.tuple
+  AND blocked_locks.virtualxid IS NOT DISTINCT FROM blocking_locks.virtualxid
+  AND blocked_locks.transactionid IS NOT DISTINCT FROM blocking_locks.transactionid
+  AND blocked_locks.classid IS NOT DISTINCT FROM blocking_locks.classid
+  AND blocked_locks.objid IS NOT DISTINCT FROM blocking_locks.objid
+  AND blocked_locks.objsubid IS NOT DISTINCT FROM blocking_locks.objsubid
+  AND blocked_locks.pid != blocking_locks.pid
+JOIN pg_stat_activity blocking ON blocking_locks.pid = blocking.pid
+WHERE blocked_locks.granted = false;</t>
+  </si>
+  <si>
+    <t>SELECT
+  blocked.pid     AS blocked_pid,
+  blocked.query   AS blocked_query,
+  blocking.pid    AS blocking_pid,
+  blocking.query  AS blocking_query
+FROM pg_locks blocked_locks
+JOIN pg_stat_activity blocked ON blocked_locks.pid = blocked.pid
+JOIN pg_locks blocking_locks
+  ON blocked_locks.locktype = blocking_locks.locktype
+  AND blocked_locks.database IS NOT DISTINCT FROM blocking_locks.database
+  AND blocked_locks.relation IS NOT DISTINCT FROM blocking_locks.relation
+  AND blocked_locks.page IS NOT DISTINCT FROM blocking_locks.page
+  AND blocked_locks.tuple IS NOT DISTINCT FROM blocking_locks.tuple
+  AND blocked_locks.virtualxid IS NOT DISTINCT FROM blocking_locks.virtualxid
+  AND blocked_locks.transactionid IS NOT DISTINCT FROM blocking_locks.transactionid
+  AND blocked_locks.classid IS NOT DISTINCT FROM blocking_locks.classid
+  AND blocked_locks.objid IS NOT DISTINCT FROM blocking_locks.objid
+  AND blocked_locks.objsubid IS NOT DISTINCT FROM blocking_locks.objsubid
+  AND blocked_locks.pid != blocking_locks.pid
+JOIN pg_stat_activity blocking ON blocking_locks.pid = blocking.pid;</t>
+  </si>
+  <si>
+    <t>REINDEX INDEX notifications_pkey;</t>
+  </si>
+  <si>
+    <t>Reindex corrupt indexed</t>
+  </si>
+  <si>
+    <t>kubectl apply -n k8s-api-elibrary -f - &lt;&lt;EOF
+apiVersion: v1
+kind: Secret
+metadata:
+  name: k8s-api-elibrary-sa-token
+  namespace: k8s-api-elibrary
+  annotations:
+    kubernetes.io/service-account.name: k8s-api-elibrary-sa
+type: kubernetes.io/service-account-token
+EOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl get secret k8s-api-elibrary-sa-token -n k8s-api-elibrary -o jsonpath='{.data.token}' | base64 -d
+</t>
+  </si>
+  <si>
+    <t>Add domain in jenkins credentials</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">under the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stores scoped to Jenkins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> section, chose in dropdown global and select add domain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create token github for deployment and save in jenkins credential and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>copy id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gitCred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jenkinsfile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">get token first, and copy token and save in jenkins, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">copy id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">secret jenkins </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for k8sCredential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jenkinsfile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crt namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for deployment from jenkins to kubernetes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl create rolebinding k8s-api-elibrary-admin \
+  --clusterrole=admin \
+  --serviceaccount=k8s-api-elibrary:k8s-api-elibrary-sa \
+  -n k8s-api-elibrary
+</t>
+  </si>
+  <si>
+    <t>Add Role Admin for Service Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl create serviceaccount cluster-admin-sa -n kube-system
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl create clusterrolebinding cluster-admin-sa-binding \
+  --clusterrole=cluster-admin \
+  --serviceaccount=kube-system:cluster-admin-sa
+</t>
+  </si>
+  <si>
+    <t>Create Role For Admin All Namespace</t>
+  </si>
+  <si>
+    <t>kubectl create token cluster-admin-sa -n kube-system</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get Service Account Token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">For Create Credentials Jenkins And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Copy ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">secret jenkins </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for k8sCredential </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jenkinsfile</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Service Account For All Namespace</t>
   </si>
 </sst>
 </file>
@@ -5285,7 +5666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5397,9 +5778,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5450,7 +5828,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5768,10 +6170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115389D8-5A82-4357-A761-D97F13C3EBF0}">
-  <dimension ref="B1:C682"/>
+  <dimension ref="B1:G691"/>
   <sheetViews>
-    <sheetView topLeftCell="A591" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C599" sqref="C599"/>
+    <sheetView topLeftCell="A819" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C616" sqref="C616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5869,33 +6271,33 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="61" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.5" customHeight="1">
-      <c r="C24" s="59"/>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="C25" s="59"/>
+      <c r="C25" s="61"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="C26" s="59"/>
+      <c r="C26" s="61"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="C27" s="59"/>
+      <c r="C27" s="61"/>
     </row>
     <row r="28" spans="2:3" ht="29" customHeight="1">
-      <c r="C28" s="59"/>
+      <c r="C28" s="61"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="59"/>
+      <c r="C29" s="61"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="C30" s="59"/>
+      <c r="C30" s="61"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="C31" s="59"/>
+      <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" s="3" t="s">
@@ -5918,43 +6320,43 @@
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="61" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="59"/>
+      <c r="C41" s="61"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="59"/>
+      <c r="C42" s="61"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="59"/>
+      <c r="C43" s="61"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="59"/>
+      <c r="C44" s="61"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="59"/>
+      <c r="C45" s="61"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="59"/>
+      <c r="C46" s="61"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="59"/>
+      <c r="C47" s="61"/>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="59"/>
+      <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="C49" s="59"/>
+      <c r="C49" s="61"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="C50" s="59"/>
+      <c r="C50" s="61"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="17"/>
-      <c r="C51" s="60"/>
+      <c r="C51" s="62"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="15" t="s">
@@ -7400,1173 +7802,1251 @@
     </row>
     <row r="403" spans="2:3">
       <c r="B403" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="405" spans="2:3" ht="333.5">
+      <c r="B405" s="64" t="s">
+        <v>717</v>
+      </c>
       <c r="C405" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="407" spans="2:3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" ht="145">
+      <c r="B407" s="48" t="s">
+        <v>327</v>
+      </c>
       <c r="C407" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3">
+      <c r="B408" s="66"/>
+      <c r="C408" s="63"/>
+    </row>
+    <row r="409" spans="2:3" ht="72.5">
+      <c r="B409" s="66" t="s">
+        <v>721</v>
+      </c>
+      <c r="C409" s="63" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3">
+      <c r="B410" s="66"/>
+      <c r="C410" s="63"/>
+    </row>
+    <row r="411" spans="2:3" ht="43.5">
+      <c r="B411" s="59" t="s">
+        <v>718</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3">
+      <c r="B412" s="67"/>
+      <c r="C412" s="63"/>
+    </row>
+    <row r="413" spans="2:3">
+      <c r="B413" s="65" t="s">
+        <v>715</v>
+      </c>
+      <c r="C413" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3">
+      <c r="B414" s="66"/>
+      <c r="C414" s="63"/>
+    </row>
+    <row r="415" spans="2:3" ht="29">
+      <c r="B415" s="66" t="s">
+        <v>727</v>
+      </c>
+      <c r="C415" s="63" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" ht="58">
+      <c r="B416" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="C416" s="63" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7" ht="43.5">
+      <c r="B417" s="66" t="s">
+        <v>726</v>
+      </c>
+      <c r="C417" s="63" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="418" spans="2:7">
+      <c r="B418" s="66"/>
+      <c r="C418" s="63"/>
+    </row>
+    <row r="419" spans="2:7">
+      <c r="F419" s="16"/>
+      <c r="G419" s="16"/>
+    </row>
+    <row r="420" spans="2:7">
+      <c r="C420" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="422" spans="2:7">
+      <c r="C422" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="424" spans="2:7">
+      <c r="C424" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="409" spans="2:3">
-      <c r="C409" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="411" spans="2:3">
-      <c r="C411" s="3" t="s">
+    <row r="426" spans="2:7" ht="29">
+      <c r="B426" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="C426" s="30" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="428" spans="2:7">
+      <c r="C428" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="413" spans="2:3">
-      <c r="C413" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="415" spans="2:3">
-      <c r="C415" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="417" spans="2:3">
-      <c r="C417" s="30" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="419" spans="2:3">
-      <c r="C419" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="421" spans="2:3" ht="29">
-      <c r="B421" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="423" spans="2:3">
-      <c r="C423" s="3" t="s">
+    <row r="430" spans="2:7" ht="29">
+      <c r="B430" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="432" spans="2:7">
+      <c r="C432" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3">
+      <c r="B434" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" ht="43.5">
+      <c r="C436" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3">
+      <c r="B438" s="35" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="425" spans="2:3">
-      <c r="B425" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="427" spans="2:3" ht="43.5">
-      <c r="C427" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="429" spans="2:3">
-      <c r="B429" s="35" t="s">
+      <c r="C438" s="36" t="s">
         <v>293</v>
-      </c>
-      <c r="C429" s="36" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="430" spans="2:3">
-      <c r="B430" s="35"/>
-      <c r="C430" s="36"/>
-    </row>
-    <row r="431" spans="2:3">
-      <c r="B431" s="35"/>
-      <c r="C431" s="36" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="432" spans="2:3">
-      <c r="B432" s="35"/>
-      <c r="C432" s="36"/>
-    </row>
-    <row r="433" spans="2:3">
-      <c r="B433" s="35"/>
-      <c r="C433" s="36" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="434" spans="2:3">
-      <c r="B434" s="35"/>
-      <c r="C434" s="36"/>
-    </row>
-    <row r="435" spans="2:3">
-      <c r="B435" s="35"/>
-      <c r="C435" s="36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="436" spans="2:3">
-      <c r="B436" s="35"/>
-      <c r="C436" s="36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="437" spans="2:3">
-      <c r="B437" s="35"/>
-      <c r="C437" s="36" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="438" spans="2:3">
-      <c r="B438" s="35"/>
-      <c r="C438" s="36" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="439" spans="2:3">
       <c r="B439" s="35"/>
-      <c r="C439" s="36" t="s">
-        <v>301</v>
-      </c>
+      <c r="C439" s="36"/>
     </row>
     <row r="440" spans="2:3">
       <c r="B440" s="35"/>
       <c r="C440" s="36" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="441" spans="2:3">
       <c r="B441" s="35"/>
-      <c r="C441" s="36" t="s">
-        <v>303</v>
-      </c>
+      <c r="C441" s="36"/>
     </row>
     <row r="442" spans="2:3">
       <c r="B442" s="35"/>
       <c r="C442" s="36" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="443" spans="2:3">
       <c r="B443" s="35"/>
-      <c r="C443" s="36" t="s">
-        <v>305</v>
-      </c>
+      <c r="C443" s="36"/>
     </row>
     <row r="444" spans="2:3">
       <c r="B444" s="35"/>
       <c r="C444" s="36" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="445" spans="2:3">
       <c r="B445" s="35"/>
-      <c r="C445" s="36"/>
+      <c r="C445" s="36" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="446" spans="2:3">
       <c r="B446" s="35"/>
       <c r="C446" s="36" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="447" spans="2:3">
       <c r="B447" s="35"/>
       <c r="C447" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="448" spans="2:3">
       <c r="B448" s="35"/>
       <c r="C448" s="36" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="449" spans="2:3">
       <c r="B449" s="35"/>
       <c r="C449" s="36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="450" spans="2:3">
       <c r="B450" s="35"/>
       <c r="C450" s="36" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="451" spans="2:3">
       <c r="B451" s="35"/>
       <c r="C451" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="452" spans="2:3">
       <c r="B452" s="35"/>
       <c r="C452" s="36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3">
+      <c r="B453" s="35"/>
+      <c r="C453" s="36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3">
+      <c r="B454" s="35"/>
+      <c r="C454" s="36"/>
+    </row>
+    <row r="455" spans="2:3">
+      <c r="B455" s="35"/>
+      <c r="C455" s="36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3">
+      <c r="B456" s="35"/>
+      <c r="C456" s="36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3">
+      <c r="B457" s="35"/>
+      <c r="C457" s="36" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="454" spans="2:3">
-      <c r="B454" s="16" t="s">
+    <row r="458" spans="2:3">
+      <c r="B458" s="35"/>
+      <c r="C458" s="36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3">
+      <c r="B459" s="35"/>
+      <c r="C459" s="36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3">
+      <c r="B460" s="35"/>
+      <c r="C460" s="36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3">
+      <c r="B461" s="35"/>
+      <c r="C461" s="36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3">
+      <c r="B463" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C463" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C454" s="3" t="s">
+    </row>
+    <row r="464" spans="2:3">
+      <c r="C464" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="455" spans="2:3" ht="15" customHeight="1">
-      <c r="C455" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="456" spans="2:3" ht="15" customHeight="1"/>
-    <row r="457" spans="2:3" ht="15" customHeight="1">
-      <c r="B457" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="C457" s="3" t="s">
+    <row r="466" spans="2:3">
+      <c r="B466" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3">
+      <c r="C467" s="3" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="458" spans="2:3" ht="15" customHeight="1">
-      <c r="C458" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="459" spans="2:3" ht="15" customHeight="1">
-      <c r="C459" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="460" spans="2:3" ht="15" customHeight="1">
-      <c r="C460" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="461" spans="2:3" ht="15" customHeight="1">
-      <c r="C461" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="462" spans="2:3" ht="15" customHeight="1"/>
-    <row r="463" spans="2:3" ht="15" customHeight="1">
-      <c r="B463" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="464" spans="2:3" ht="15" customHeight="1">
-      <c r="C464" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="465" spans="2:3" ht="15" customHeight="1">
-      <c r="C465" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="467" spans="2:3">
-      <c r="B467" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C467" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="468" spans="2:3">
       <c r="C468" s="3" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
     </row>
     <row r="469" spans="2:3">
       <c r="C469" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" ht="15" customHeight="1">
+      <c r="C470" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" ht="15" customHeight="1"/>
+    <row r="472" spans="2:3" ht="15" customHeight="1">
+      <c r="B472" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" ht="15" customHeight="1">
+      <c r="C473" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" ht="15" customHeight="1">
+      <c r="C474" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" ht="15" customHeight="1"/>
+    <row r="476" spans="2:3" ht="15" customHeight="1">
+      <c r="B476" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" ht="15" customHeight="1">
+      <c r="C477" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" ht="15" customHeight="1">
+      <c r="C478" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" ht="15" customHeight="1">
+      <c r="C479" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="470" spans="2:3">
-      <c r="C470" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="472" spans="2:3">
-      <c r="C472" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="473" spans="2:3">
-      <c r="C473" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="475" spans="2:3">
-      <c r="C475" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="476" spans="2:3">
-      <c r="C476" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="477" spans="2:3">
-      <c r="C477" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="478" spans="2:3">
-      <c r="C478" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="479" spans="2:3">
-      <c r="C479" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
+    <row r="480" spans="2:3" ht="15" customHeight="1"/>
     <row r="481" spans="2:3">
       <c r="C481" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="482" spans="2:3">
       <c r="C482" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="485" spans="2:3" ht="29">
-      <c r="B485" s="16" t="s">
-        <v>331</v>
-      </c>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3">
+      <c r="C484" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3">
       <c r="C485" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3">
+      <c r="C486" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="487" spans="2:3">
-      <c r="B487" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="489" spans="2:3">
-      <c r="C489" s="3" t="s">
-        <v>335</v>
+      <c r="C487" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3">
+      <c r="C488" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3">
+      <c r="C490" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="491" spans="2:3">
       <c r="C491" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" ht="29">
+      <c r="B494" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3">
+      <c r="B496" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3">
+      <c r="C498" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="493" spans="2:3">
-      <c r="B493" s="16" t="s">
+    <row r="500" spans="2:3">
+      <c r="C500" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3">
+      <c r="B502" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C502" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C493" s="3" t="s">
+    </row>
+    <row r="503" spans="2:3">
+      <c r="C503" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="494" spans="2:3">
-      <c r="C494" s="3" t="s">
+    <row r="505" spans="2:3">
+      <c r="C505" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="496" spans="2:3">
-      <c r="C496" s="3" t="s">
+    <row r="506" spans="2:3">
+      <c r="C506" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="497" spans="3:3">
-      <c r="C497" s="3" t="s">
+    <row r="508" spans="2:3">
+      <c r="C508" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="499" spans="3:3">
-      <c r="C499" s="3" t="s">
+    <row r="509" spans="2:3">
+      <c r="C509" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="500" spans="3:3">
-      <c r="C500" s="3" t="s">
+    <row r="510" spans="2:3" ht="43.5">
+      <c r="C510" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" ht="29">
+      <c r="C511" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" ht="29">
+      <c r="C512" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3">
+      <c r="C514" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="501" spans="3:3" ht="43.5">
-      <c r="C501" s="3" t="s">
+    <row r="516" spans="3:3">
+      <c r="C516" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="502" spans="3:3" ht="29">
-      <c r="C502" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="503" spans="3:3" ht="29">
-      <c r="C503" s="3" t="s">
+    <row r="518" spans="3:3" ht="29">
+      <c r="C518" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3" ht="29">
+      <c r="C519" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3">
+      <c r="C520" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3">
+      <c r="C522" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3">
+      <c r="C524" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3">
+      <c r="C525" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3">
+      <c r="C527" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3">
+      <c r="C529" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3">
+      <c r="C530" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" ht="29">
+      <c r="B533" s="16" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="505" spans="3:3">
-      <c r="C505" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="507" spans="3:3">
-      <c r="C507" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="509" spans="3:3" ht="29">
-      <c r="C509" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="510" spans="3:3" ht="29">
-      <c r="C510" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="511" spans="3:3">
-      <c r="C511" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="513" spans="2:3">
-      <c r="C513" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="515" spans="2:3">
-      <c r="C515" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="516" spans="2:3">
-      <c r="C516" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="518" spans="2:3">
-      <c r="C518" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="520" spans="2:3">
-      <c r="C520" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="521" spans="2:3">
-      <c r="C521" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="524" spans="2:3" ht="14.5" customHeight="1">
-      <c r="B524" s="16" t="s">
+      <c r="C533" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3">
+      <c r="C535" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C524" s="3" t="s">
+    </row>
+    <row r="537" spans="2:3">
+      <c r="C537" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" ht="14.5" customHeight="1"/>
+    <row r="540" spans="2:3">
+      <c r="B540" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="526" spans="2:3">
-      <c r="C526" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="528" spans="2:3">
-      <c r="C528" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="531" spans="2:3">
-      <c r="B531" t="s">
-        <v>361</v>
-      </c>
-      <c r="C531" s="3" t="e">
+      <c r="C540" s="3" t="e">
         <f>-- Give access to the schema</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="532" spans="2:3">
-      <c r="C532" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="534" spans="2:3">
-      <c r="C534" s="3" t="e">
+    <row r="541" spans="2:3">
+      <c r="C541" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3">
+      <c r="C543" s="3" t="e">
         <f>-- Grant access to all existing tables</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="535" spans="2:3">
-      <c r="C535" s="3" t="s">
+    <row r="544" spans="2:3">
+      <c r="C544" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3">
+      <c r="C546" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="537" spans="2:3">
-      <c r="C537" s="3" t="s">
+    <row r="547" spans="2:3">
+      <c r="C547" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="538" spans="2:3">
-      <c r="C538" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="540" spans="2:3">
-      <c r="C540" s="3" t="e">
+    <row r="549" spans="2:3">
+      <c r="C549" s="3" t="e">
         <f>-- Optional: Grant future table/sequence privileges too</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="541" spans="2:3">
-      <c r="C541" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="542" spans="2:3">
-      <c r="C542" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="544" spans="2:3" ht="17.5">
-      <c r="B544" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="C544" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="546" spans="2:3">
-      <c r="B546" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C546" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="548" spans="2:3">
-      <c r="B548" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C548" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="549" spans="2:3">
-      <c r="C549" s="3" t="s">
-        <v>500</v>
+    <row r="550" spans="2:3">
+      <c r="C550" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="551" spans="2:3">
       <c r="C551" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="553" spans="2:3">
-      <c r="B553" s="16" t="s">
-        <v>383</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3" ht="17.5">
+      <c r="B553" s="34" t="s">
+        <v>377</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="554" spans="2:3">
-      <c r="C554" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="556" spans="2:3">
-      <c r="C556" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3">
+      <c r="B555" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="557" spans="2:3">
+      <c r="B557" s="16" t="s">
+        <v>381</v>
+      </c>
       <c r="C557" s="3" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
     </row>
     <row r="558" spans="2:3">
       <c r="C558" s="3" t="s">
-        <v>393</v>
+        <v>499</v>
       </c>
     </row>
     <row r="560" spans="2:3">
       <c r="C560" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3">
+      <c r="B562" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3">
+      <c r="C563" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3">
+      <c r="C565" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3">
+      <c r="C566" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3">
+      <c r="C567" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3">
+      <c r="C569" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3">
+      <c r="C570" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="561" spans="3:3">
-      <c r="C561" s="3" t="s">
+    <row r="571" spans="2:3">
+      <c r="C571" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="562" spans="3:3">
-      <c r="C562" s="3" t="s">
+    <row r="572" spans="2:3">
+      <c r="C572" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="563" spans="3:3">
-      <c r="C563" s="3" t="s">
+    <row r="574" spans="2:3">
+      <c r="C574" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="565" spans="3:3">
-      <c r="C565" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="566" spans="3:3">
-      <c r="C566" s="3" t="s">
+    <row r="575" spans="2:3">
+      <c r="C575" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="577" spans="2:3">
+      <c r="C577" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="568" spans="3:3">
-      <c r="C568" s="3" t="s">
+    <row r="578" spans="2:3">
+      <c r="C578" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="569" spans="3:3">
-      <c r="C569" s="3" t="s">
+    <row r="580" spans="2:3">
+      <c r="C580" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="571" spans="3:3">
-      <c r="C571" s="3" t="s">
+    <row r="582" spans="2:3">
+      <c r="C582" s="3" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="573" spans="3:3">
-      <c r="C573" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="574" spans="3:3">
-      <c r="C574" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="576" spans="3:3">
-      <c r="C576" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="578" spans="2:3">
-      <c r="B578" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C578" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="579" spans="2:3">
-      <c r="C579" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="580" spans="2:3">
-      <c r="C580" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="583" spans="2:3">
       <c r="C583" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="584" spans="2:3">
-      <c r="C584" s="3" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="585" spans="2:3">
-      <c r="B585" s="16" t="s">
-        <v>405</v>
-      </c>
       <c r="C585" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="586" spans="2:3">
-      <c r="C586" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="587" spans="2:3">
+      <c r="B587" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3">
+      <c r="C588" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3">
+      <c r="C589" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3">
+      <c r="C592" s="3" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="587" spans="2:3">
-      <c r="C587" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="588" spans="2:3">
-      <c r="C588" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="590" spans="2:3">
-      <c r="C590" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="591" spans="2:3">
-      <c r="C591" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="592" spans="2:3">
-      <c r="B592" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C592" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="593" spans="2:3">
       <c r="C593" s="3" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="594" spans="2:3">
+      <c r="B594" s="16" t="s">
+        <v>404</v>
+      </c>
       <c r="C594" s="3" t="s">
-        <v>420</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3">
+      <c r="C595" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="596" spans="2:3">
       <c r="C596" s="3" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="597" spans="2:3">
       <c r="C597" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="598" spans="2:3">
-      <c r="B598" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="C598" s="3" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="599" spans="2:3">
       <c r="C599" s="3" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="600" spans="2:3">
-      <c r="C600" t="s">
-        <v>427</v>
+      <c r="C600" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="601" spans="2:3">
+      <c r="B601" s="16" t="s">
+        <v>414</v>
+      </c>
       <c r="C601" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="602" spans="2:3">
+      <c r="C602" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="603" spans="2:3">
       <c r="C603" s="3" t="s">
-        <v>495</v>
+        <v>419</v>
       </c>
     </row>
     <row r="605" spans="2:3">
-      <c r="B605" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="C605" s="29" t="s">
-        <v>429</v>
+      <c r="C605" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="606" spans="2:3">
-      <c r="C606" s="29" t="s">
-        <v>430</v>
+      <c r="C606" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="607" spans="2:3">
       <c r="B607" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="C607" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="608" spans="2:3">
+      <c r="C608" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="609" spans="2:3">
+      <c r="C609" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="610" spans="2:3">
+      <c r="C610" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="612" spans="2:3">
+      <c r="B612" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="614" spans="2:3">
+      <c r="B614" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C614" s="29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="615" spans="2:3">
+      <c r="C615" s="29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="616" spans="2:3">
+      <c r="C616" s="29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="617" spans="2:3">
+      <c r="C617" s="37" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="608" spans="2:3">
-      <c r="C608" s="37" t="s">
+    <row r="618" spans="2:3">
+      <c r="C618" s="37" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="609" spans="3:3">
-      <c r="C609" s="37" t="s">
+    <row r="619" spans="2:3">
+      <c r="C619" s="29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="620" spans="2:3">
+      <c r="C620" s="29" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="610" spans="3:3">
-      <c r="C610" s="29" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="611" spans="3:3">
-      <c r="C611" s="29" t="s">
+    <row r="621" spans="2:3">
+      <c r="C621" s="29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="622" spans="2:3">
+      <c r="C622" s="37" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="612" spans="3:3">
-      <c r="C612" s="29" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="613" spans="3:3">
-      <c r="C613" s="37" t="s">
+    <row r="623" spans="2:3">
+      <c r="C623" s="37" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="614" spans="3:3">
-      <c r="C614" s="37" t="s">
+    <row r="624" spans="2:3">
+      <c r="C624" s="29" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="615" spans="3:3">
-      <c r="C615" s="29" t="s">
+    <row r="625" spans="3:3">
+      <c r="C625" s="37" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="616" spans="3:3">
-      <c r="C616" s="37" t="s">
+    <row r="626" spans="3:3">
+      <c r="C626" s="37" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="617" spans="3:3">
-      <c r="C617" s="37" t="s">
+    <row r="627" spans="3:3">
+      <c r="C627" s="37" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="618" spans="3:3">
-      <c r="C618" s="37" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="619" spans="3:3">
-      <c r="C619" s="37" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="620" spans="3:3">
-      <c r="C620" s="37" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="621" spans="3:3">
-      <c r="C621" s="37" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="622" spans="3:3">
-      <c r="C622" s="37" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="623" spans="3:3">
-      <c r="C623" s="37" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="624" spans="3:3">
-      <c r="C624" s="37" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="625" spans="3:3">
-      <c r="C625" s="29" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="626" spans="3:3">
-      <c r="C626" s="29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="627" spans="3:3">
-      <c r="C627" s="29" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="628" spans="3:3">
       <c r="C628" s="37" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="629" spans="3:3">
       <c r="C629" s="37" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="630" spans="3:3">
-      <c r="C630" s="29" t="s">
-        <v>447</v>
+      <c r="C630" s="37" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="631" spans="3:3">
       <c r="C631" s="37" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="632" spans="3:3">
       <c r="C632" s="37" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
     </row>
     <row r="633" spans="3:3">
       <c r="C633" s="37" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="634" spans="3:3">
-      <c r="C634" s="37" t="s">
-        <v>451</v>
+      <c r="C634" s="29" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="635" spans="3:3">
-      <c r="C635" s="37" t="s">
-        <v>452</v>
+      <c r="C635" s="29" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="636" spans="3:3">
-      <c r="C636" s="37" t="s">
-        <v>453</v>
+      <c r="C636" s="29" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="637" spans="3:3">
       <c r="C637" s="37" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="638" spans="3:3">
       <c r="C638" s="37" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="639" spans="3:3">
-      <c r="C639" s="37" t="s">
-        <v>456</v>
+      <c r="C639" s="29" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="640" spans="3:3">
       <c r="C640" s="37" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="641" spans="3:3">
       <c r="C641" s="37" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="642" spans="3:3">
-      <c r="C642" s="29" t="s">
-        <v>458</v>
+      <c r="C642" s="37" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="643" spans="3:3">
-      <c r="C643" s="29" t="s">
-        <v>459</v>
+      <c r="C643" s="37" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="644" spans="3:3">
-      <c r="C644" s="29" t="s">
-        <v>431</v>
+      <c r="C644" s="37" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="645" spans="3:3">
       <c r="C645" s="37" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="646" spans="3:3">
       <c r="C646" s="37" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="647" spans="3:3">
-      <c r="C647" s="29" t="s">
-        <v>447</v>
+      <c r="C647" s="37" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="648" spans="3:3">
       <c r="C648" s="37" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="649" spans="3:3">
       <c r="C649" s="37" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="650" spans="3:3">
       <c r="C650" s="37" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="651" spans="3:3">
-      <c r="C651" s="37" t="s">
-        <v>463</v>
+      <c r="C651" s="29" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="652" spans="3:3">
-      <c r="C652" s="37" t="s">
-        <v>464</v>
+      <c r="C652" s="29" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="653" spans="3:3">
-      <c r="C653" s="37" t="s">
-        <v>465</v>
+      <c r="C653" s="29" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="654" spans="3:3">
       <c r="C654" s="37" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="655" spans="3:3">
       <c r="C655" s="37" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
     </row>
     <row r="656" spans="3:3">
-      <c r="C656" s="37" t="s">
-        <v>468</v>
+      <c r="C656" s="29" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="657" spans="3:3">
       <c r="C657" s="37" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="658" spans="3:3">
       <c r="C658" s="37" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="659" spans="3:3">
       <c r="C659" s="37" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="660" spans="3:3">
       <c r="C660" s="37" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="661" spans="3:3">
       <c r="C661" s="37" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="662" spans="3:3">
       <c r="C662" s="37" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="663" spans="3:3">
       <c r="C663" s="37" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="664" spans="3:3">
       <c r="C664" s="37" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="665" spans="3:3">
       <c r="C665" s="37" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="666" spans="3:3">
       <c r="C666" s="37" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="667" spans="3:3">
       <c r="C667" s="37" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="668" spans="3:3">
       <c r="C668" s="37" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="669" spans="3:3">
       <c r="C669" s="37" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="670" spans="3:3">
       <c r="C670" s="37" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="671" spans="3:3">
       <c r="C671" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="672" spans="3:3">
       <c r="C672" s="37" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="673" spans="3:3">
       <c r="C673" s="37" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="674" spans="3:3">
       <c r="C674" s="37" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="675" spans="3:3">
       <c r="C675" s="37" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="676" spans="3:3">
       <c r="C676" s="37" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="677" spans="3:3">
       <c r="C677" s="37" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="678" spans="3:3">
       <c r="C678" s="37" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="679" spans="3:3">
       <c r="C679" s="37" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="680" spans="3:3">
       <c r="C680" s="37" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="681" spans="3:3">
       <c r="C681" s="37" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="682" spans="3:3">
       <c r="C682" s="37" t="s">
-        <v>494</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="683" spans="3:3">
+      <c r="C683" s="37" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="684" spans="3:3">
+      <c r="C684" s="37" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="685" spans="3:3">
+      <c r="C685" s="37" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="686" spans="3:3">
+      <c r="C686" s="37" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="687" spans="3:3">
+      <c r="C687" s="37" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="688" spans="3:3">
+      <c r="C688" s="37" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="689" spans="3:3">
+      <c r="C689" s="37" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="690" spans="3:3">
+      <c r="C690" s="37" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="691" spans="3:3">
+      <c r="C691" s="37" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -8582,12 +9062,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1726B2-043F-4F9C-A7D9-6122F0CC1D1C}">
+  <dimension ref="B1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="34" style="22" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" customWidth="1"/>
+    <col min="4" max="4" width="37" style="12" customWidth="1"/>
+    <col min="5" max="6" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="54" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="C3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>688</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{24C91F01-C48B-430F-83A6-6702C492417D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED613409-59F7-4B7A-B595-FACB16658F87}">
   <dimension ref="B1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8598,275 +9135,272 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="C1" s="39" t="s">
+    </row>
+    <row r="3" spans="2:3" ht="409.5">
+      <c r="B3" s="41" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="409.5">
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="40" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="409.5">
+      <c r="B4" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C4" s="40" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="16" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="409.5">
-      <c r="B4" s="42" t="s">
+      <c r="C5" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="41" t="s">
-        <v>505</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="16" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="C13" s="3" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="C16" s="3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="C17" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>513</v>
-      </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="16" t="s">
-        <v>537</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="C21" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="16" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="2:3">
+      <c r="B32" s="16" t="s">
+        <v>532</v>
+      </c>
       <c r="C32" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" s="3" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="2:3">
+      <c r="B38" s="16" t="s">
+        <v>533</v>
+      </c>
       <c r="C38" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="3" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="C40" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" ht="29">
+      <c r="B44" s="16" t="s">
+        <v>535</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="2:3">
+      <c r="B46" s="49" t="s">
+        <v>669</v>
+      </c>
       <c r="C46" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="C47" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="48" t="s">
+        <v>671</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="C48" s="3" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="C49" s="3" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="C50" s="3" t="s">
+    <row r="52" spans="3:3" ht="29">
+      <c r="C52" s="3" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="29">
-      <c r="C52" s="3" t="s">
+    <row r="54" spans="3:3">
+      <c r="C54" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="29">
-      <c r="B54" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="159.5">
-      <c r="B56" s="50" t="s">
+    <row r="56" spans="3:3" ht="159.5">
+      <c r="C56" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" ht="130.5">
+      <c r="C58" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="130.5">
-      <c r="B58" s="49" t="s">
-        <v>672</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -8879,7 +9413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B0D8-ABA7-483C-A39A-AC8B2DF5DBEC}">
   <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -8890,16 +9424,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>502</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -8912,8 +9446,8 @@
       <c r="C6"/>
     </row>
     <row r="7" spans="2:3" ht="23.5">
-      <c r="C7" s="45" t="s">
-        <v>549</v>
+      <c r="C7" s="44" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -8921,12 +9455,12 @@
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="31" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="45" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="C10" s="46" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -8934,12 +9468,12 @@
     </row>
     <row r="12" spans="2:3">
       <c r="C12" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" s="31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -8947,7 +9481,7 @@
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -8955,7 +9489,7 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -8969,7 +9503,7 @@
     </row>
     <row r="21" spans="3:3" ht="17.5">
       <c r="C21" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="3:3">
@@ -8977,7 +9511,7 @@
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="3:3">
@@ -8985,7 +9519,7 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -8993,7 +9527,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -9001,32 +9535,32 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -9052,16 +9586,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>502</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>73</v>
@@ -9099,7 +9633,7 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>78</v>
@@ -9112,12 +9646,12 @@
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="3:3">
@@ -9127,70 +9661,70 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="C39" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="C40" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="C43" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -9200,17 +9734,17 @@
     </row>
     <row r="45" spans="2:3">
       <c r="C45" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="C47" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="C48" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -9225,95 +9759,95 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="C56" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="C59" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="C60" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" spans="3:3">
@@ -9328,7 +9862,7 @@
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93" spans="3:3">
@@ -9343,122 +9877,122 @@
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -9481,208 +10015,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>502</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="D50" t="s">
         <v>661</v>
-      </c>
-      <c r="D50" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="D51" t="s">
         <v>663</v>
-      </c>
-      <c r="D51" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="D52" t="s">
         <v>665</v>
-      </c>
-      <c r="D52" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -9692,10 +10226,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B241AB5B-9E8D-4A8A-AF31-19B6A43E3278}">
-  <dimension ref="B1:C4"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9705,27 +10239,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>681</v>
+      <c r="B1" s="54" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="87">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="53" t="s">
+        <v>675</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="54" t="s">
-        <v>676</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>675</v>
+    </row>
+    <row r="6" spans="2:3" ht="290">
+      <c r="B6" s="52" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="246.5">
+      <c r="B8" s="60" t="s">
+        <v>708</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -9736,10 +10294,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120CCC8B-7F77-4248-9B3B-6896FAFAD032}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9749,50 +10307,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="53" t="s">
+        <v>691</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>690</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="54" t="s">
-        <v>692</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="53" t="s">
+        <v>694</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="54" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="53"/>
+    </row>
+    <row r="8" spans="2:3" ht="29">
+      <c r="B8" s="53"/>
+      <c r="C8" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="53" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="54" t="s">
-        <v>699</v>
-      </c>
-      <c r="C8" s="12" t="s">
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="12" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="12" t="s">
+    <row r="12" spans="2:3">
+      <c r="C12" s="12" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="C10" s="12" t="s">
-        <v>698</v>
+    <row r="14" spans="2:3">
+      <c r="B14" s="53" t="s">
+        <v>706</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="12" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -9801,41 +10386,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46823263-4C1F-4BCA-80B2-7A0FB13B4B6C}">
-  <dimension ref="B1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DFC42C-DB38-4732-81A5-063E6C4E38ED}">
+  <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29" style="51" customWidth="1"/>
-    <col min="3" max="3" width="49.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.6328125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="51" t="s">
-        <v>678</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="58">
-      <c r="B3" s="51" t="s">
-        <v>679</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>680</v>
+      <c r="B1" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="25">
+      <c r="B2" s="59" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -9844,58 +10421,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1726B2-043F-4F9C-A7D9-6122F0CC1D1C}">
-  <dimension ref="B1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46823263-4C1F-4BCA-80B2-7A0FB13B4B6C}">
+  <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="34" style="22" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" customWidth="1"/>
-    <col min="4" max="4" width="37" style="12" customWidth="1"/>
-    <col min="5" max="6" width="37" customWidth="1"/>
+    <col min="2" max="2" width="29" style="50" customWidth="1"/>
+    <col min="3" max="3" width="49.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="55" t="s">
-        <v>682</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>683</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="D2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="C3" t="s">
-        <v>687</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>689</v>
+    <row r="1" spans="2:3">
+      <c r="B1" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="50" t="s">
+        <v>677</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="58">
+      <c r="B3" s="50" t="s">
+        <v>678</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{24C91F01-C48B-430F-83A6-6702C492417D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/development-notes.xlsx
+++ b/development-notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Developer\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B3A13-3A22-4259-85EC-F8D2346E0DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C138E403-63D0-428A-8763-1A79D484DB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="734">
   <si>
     <t>fungsi</t>
   </si>
@@ -5122,10 +5122,6 @@
 EOF</t>
   </si>
   <si>
-    <t xml:space="preserve">kubectl get secret k8s-api-elibrary-sa-token -n k8s-api-elibrary -o jsonpath='{.data.token}' | base64 -d
-</t>
-  </si>
-  <si>
     <t>Add domain in jenkins credentials</t>
   </si>
   <si>
@@ -5341,9 +5337,6 @@
     <t>Create Role For Admin All Namespace</t>
   </si>
   <si>
-    <t>kubectl create token cluster-admin-sa -n kube-system</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Get Service Account Token </t>
     </r>
@@ -5413,6 +5406,83 @@
   </si>
   <si>
     <t>Create Service Account For All Namespace</t>
+  </si>
+  <si>
+    <t>kubectl apply -n kube-system -f - &lt;&lt;EOF
+apiVersion: v1
+kind: Secret
+metadata:
+  name: cluster-admin-sa-token
+  namespace: kube-system
+  annotations:
+    kubernetes.io/service-account.name: cluster-admin-sa
+type: kubernetes.io/service-account-token
+EOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl get secret k8s-api-elibrary-sa-token -n k8s-api-elibrary -o jsonpath='{.data.token}' | base64 -d | awk -F'&gt;' '{print $1}'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl get secret cluster-admin-sa-token \
+  -n kube-system \
+  -o jsonpath='{.data.token}' | base64 -d | awk -F'&gt;' '{print $1}'
+</t>
+  </si>
+  <si>
+    <t>Create token permanent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create config </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connect-offsets</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">kafka-topics \
+  --bootstrap-server kafka-0.kafka-headless.k8s-kafka.svc.cluster.local:9092 \
+  --create \
+  --topic connect-offsets \
+  --partitions 25 \
+  --replication-factor 1 \
+  --config cleanup.policy=compact
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kafka-topics \
+  --bootstrap-server kafka-0.kafka-headless.k8s-kafka.svc.cluster.local:9092 \
+  --create \
+  --topic connect-status \
+  --partitions 5 \
+  --replication-factor 1 \
+  --config cleanup.policy=compact
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create config </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connect-status</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6170,10 +6240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115389D8-5A82-4357-A761-D97F13C3EBF0}">
-  <dimension ref="B1:G691"/>
+  <dimension ref="B1:G694"/>
   <sheetViews>
-    <sheetView topLeftCell="A819" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C616" sqref="C616"/>
+    <sheetView topLeftCell="A416" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B417" sqref="B417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7810,7 +7880,7 @@
     </row>
     <row r="405" spans="2:3" ht="333.5">
       <c r="B405" s="64" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>329</v>
@@ -7830,10 +7900,10 @@
     </row>
     <row r="409" spans="2:3" ht="72.5">
       <c r="B409" s="66" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C409" s="63" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="410" spans="2:3">
@@ -7842,10 +7912,10 @@
     </row>
     <row r="411" spans="2:3" ht="43.5">
       <c r="B411" s="59" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
     </row>
     <row r="412" spans="2:3">
@@ -7854,10 +7924,10 @@
     </row>
     <row r="413" spans="2:3">
       <c r="B413" s="65" t="s">
+        <v>714</v>
+      </c>
+      <c r="C413" t="s">
         <v>715</v>
-      </c>
-      <c r="C413" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="414" spans="2:3">
@@ -7866,594 +7936,597 @@
     </row>
     <row r="415" spans="2:3" ht="29">
       <c r="B415" s="66" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C415" s="63" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="416" spans="2:3" ht="58">
       <c r="B416" s="66" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C416" s="63" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="417" spans="2:7" ht="43.5">
-      <c r="B417" s="66" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7" ht="145">
+      <c r="B417" s="48" t="s">
+        <v>729</v>
+      </c>
+      <c r="C417" s="63" t="s">
         <v>726</v>
-      </c>
-      <c r="C417" s="63" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="418" spans="2:7">
       <c r="B418" s="66"/>
       <c r="C418" s="63"/>
     </row>
-    <row r="419" spans="2:7">
-      <c r="F419" s="16"/>
-      <c r="G419" s="16"/>
+    <row r="419" spans="2:7" ht="58">
+      <c r="B419" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="C419" s="63" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="420" spans="2:7">
-      <c r="C420" s="3" t="s">
+      <c r="B420" s="66"/>
+      <c r="C420" s="63"/>
+    </row>
+    <row r="421" spans="2:7">
+      <c r="B421" s="66"/>
+      <c r="C421" s="63"/>
+    </row>
+    <row r="422" spans="2:7">
+      <c r="F422" s="16"/>
+      <c r="G422" s="16"/>
+    </row>
+    <row r="423" spans="2:7">
+      <c r="C423" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="422" spans="2:7">
-      <c r="C422" s="3" t="s">
+    <row r="425" spans="2:7">
+      <c r="C425" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="424" spans="2:7">
-      <c r="C424" s="3" t="s">
+    <row r="427" spans="2:7">
+      <c r="C427" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="426" spans="2:7" ht="29">
-      <c r="B426" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="C426" s="30" t="s">
+    <row r="429" spans="2:7" ht="29">
+      <c r="B429" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="C429" s="30" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="428" spans="2:7">
-      <c r="C428" s="3" t="s">
+    <row r="431" spans="2:7">
+      <c r="C431" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="430" spans="2:7" ht="29">
-      <c r="B430" s="16" t="s">
+    <row r="433" spans="2:3" ht="29">
+      <c r="B433" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="C433" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="432" spans="2:7">
-      <c r="C432" s="3" t="s">
+    <row r="435" spans="2:3">
+      <c r="C435" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="434" spans="2:3">
-      <c r="B434" s="16" t="s">
+    <row r="437" spans="2:3">
+      <c r="B437" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C434" s="3" t="s">
+      <c r="C437" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="436" spans="2:3" ht="43.5">
-      <c r="C436" s="3" t="s">
+    <row r="439" spans="2:3" ht="43.5">
+      <c r="C439" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="438" spans="2:3">
-      <c r="B438" s="35" t="s">
+    <row r="441" spans="2:3">
+      <c r="B441" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C438" s="36" t="s">
+      <c r="C441" s="36" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="439" spans="2:3">
-      <c r="B439" s="35"/>
-      <c r="C439" s="36"/>
-    </row>
-    <row r="440" spans="2:3">
-      <c r="B440" s="35"/>
-      <c r="C440" s="36" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="441" spans="2:3">
-      <c r="B441" s="35"/>
-      <c r="C441" s="36"/>
     </row>
     <row r="442" spans="2:3">
       <c r="B442" s="35"/>
-      <c r="C442" s="36" t="s">
-        <v>295</v>
-      </c>
+      <c r="C442" s="36"/>
     </row>
     <row r="443" spans="2:3">
       <c r="B443" s="35"/>
-      <c r="C443" s="36"/>
+      <c r="C443" s="36" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="444" spans="2:3">
       <c r="B444" s="35"/>
-      <c r="C444" s="36" t="s">
-        <v>296</v>
-      </c>
+      <c r="C444" s="36"/>
     </row>
     <row r="445" spans="2:3">
       <c r="B445" s="35"/>
       <c r="C445" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="446" spans="2:3">
       <c r="B446" s="35"/>
-      <c r="C446" s="36" t="s">
-        <v>298</v>
-      </c>
+      <c r="C446" s="36"/>
     </row>
     <row r="447" spans="2:3">
       <c r="B447" s="35"/>
       <c r="C447" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="448" spans="2:3">
       <c r="B448" s="35"/>
       <c r="C448" s="36" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="449" spans="2:3">
       <c r="B449" s="35"/>
       <c r="C449" s="36" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="450" spans="2:3">
       <c r="B450" s="35"/>
       <c r="C450" s="36" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="451" spans="2:3">
       <c r="B451" s="35"/>
       <c r="C451" s="36" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="452" spans="2:3">
       <c r="B452" s="35"/>
       <c r="C452" s="36" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="453" spans="2:3">
       <c r="B453" s="35"/>
       <c r="C453" s="36" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="454" spans="2:3">
       <c r="B454" s="35"/>
-      <c r="C454" s="36"/>
+      <c r="C454" s="36" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="455" spans="2:3">
       <c r="B455" s="35"/>
       <c r="C455" s="36" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="456" spans="2:3">
       <c r="B456" s="35"/>
       <c r="C456" s="36" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="457" spans="2:3">
       <c r="B457" s="35"/>
-      <c r="C457" s="36" t="s">
-        <v>306</v>
-      </c>
+      <c r="C457" s="36"/>
     </row>
     <row r="458" spans="2:3">
       <c r="B458" s="35"/>
       <c r="C458" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="459" spans="2:3">
       <c r="B459" s="35"/>
       <c r="C459" s="36" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="460" spans="2:3">
       <c r="B460" s="35"/>
       <c r="C460" s="36" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="461" spans="2:3">
       <c r="B461" s="35"/>
       <c r="C461" s="36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3">
+      <c r="B462" s="35"/>
+      <c r="C462" s="36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3">
+      <c r="B463" s="35"/>
+      <c r="C463" s="36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3">
+      <c r="B464" s="35"/>
+      <c r="C464" s="36" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="463" spans="2:3">
-      <c r="B463" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="464" spans="2:3">
-      <c r="C464" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="466" spans="2:3">
       <c r="B466" s="16" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
     </row>
     <row r="467" spans="2:3">
       <c r="C467" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3">
+      <c r="B469" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3">
+      <c r="C470" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="468" spans="2:3">
-      <c r="C468" s="3" t="s">
+    <row r="471" spans="2:3">
+      <c r="C471" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="469" spans="2:3">
-      <c r="C469" s="3" t="s">
+    <row r="472" spans="2:3">
+      <c r="C472" s="3" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="470" spans="2:3" ht="15" customHeight="1">
-      <c r="C470" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="471" spans="2:3" ht="15" customHeight="1"/>
-    <row r="472" spans="2:3" ht="15" customHeight="1">
-      <c r="B472" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="473" spans="2:3" ht="15" customHeight="1">
       <c r="C473" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" ht="15" customHeight="1"/>
+    <row r="475" spans="2:3" ht="15" customHeight="1">
+      <c r="B475" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" ht="15" customHeight="1">
+      <c r="C476" s="3" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="474" spans="2:3" ht="15" customHeight="1">
-      <c r="C474" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="475" spans="2:3" ht="15" customHeight="1"/>
-    <row r="476" spans="2:3" ht="15" customHeight="1">
-      <c r="B476" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="477" spans="2:3" ht="15" customHeight="1">
       <c r="C477" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" ht="15" customHeight="1"/>
+    <row r="479" spans="2:3" ht="15" customHeight="1">
+      <c r="B479" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" ht="15" customHeight="1">
+      <c r="C480" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="478" spans="2:3" ht="15" customHeight="1">
-      <c r="C478" s="3" t="s">
+    <row r="481" spans="3:3" ht="15" customHeight="1">
+      <c r="C481" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="479" spans="2:3" ht="15" customHeight="1">
-      <c r="C479" s="3" t="s">
+    <row r="482" spans="3:3" ht="15" customHeight="1">
+      <c r="C482" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="480" spans="2:3" ht="15" customHeight="1"/>
-    <row r="481" spans="2:3">
-      <c r="C481" s="3" t="s">
+    <row r="483" spans="3:3" ht="15" customHeight="1"/>
+    <row r="484" spans="3:3">
+      <c r="C484" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="482" spans="2:3">
-      <c r="C482" s="3" t="s">
+    <row r="485" spans="3:3">
+      <c r="C485" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="484" spans="2:3">
-      <c r="C484" s="3" t="s">
+    <row r="487" spans="3:3">
+      <c r="C487" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="485" spans="2:3">
-      <c r="C485" s="3" t="s">
+    <row r="488" spans="3:3">
+      <c r="C488" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="486" spans="2:3">
-      <c r="C486" s="3" t="s">
+    <row r="489" spans="3:3">
+      <c r="C489" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="487" spans="2:3">
-      <c r="C487" s="3" t="s">
+    <row r="490" spans="3:3">
+      <c r="C490" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="488" spans="2:3">
-      <c r="C488" s="3" t="s">
+    <row r="491" spans="3:3">
+      <c r="C491" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="490" spans="2:3">
-      <c r="C490" s="3" t="s">
+    <row r="493" spans="3:3">
+      <c r="C493" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="491" spans="2:3">
-      <c r="C491" s="3" t="s">
+    <row r="494" spans="3:3">
+      <c r="C494" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="494" spans="2:3" ht="29">
-      <c r="B494" s="16" t="s">
+    <row r="497" spans="2:3" ht="29">
+      <c r="B497" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C494" s="3" t="s">
+      <c r="C497" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="496" spans="2:3">
-      <c r="B496" s="16" t="s">
+    <row r="499" spans="2:3">
+      <c r="B499" s="16" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="498" spans="2:3">
-      <c r="C498" s="3" t="s">
+    <row r="501" spans="2:3">
+      <c r="C501" s="3" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="500" spans="2:3">
-      <c r="C500" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="502" spans="2:3">
-      <c r="B502" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="503" spans="2:3">
       <c r="C503" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="505" spans="2:3">
+      <c r="B505" s="16" t="s">
+        <v>335</v>
+      </c>
       <c r="C505" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="506" spans="2:3">
       <c r="C506" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="508" spans="2:3">
       <c r="C508" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="509" spans="2:3">
       <c r="C509" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3">
+      <c r="C511" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3">
+      <c r="C512" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="510" spans="2:3" ht="43.5">
-      <c r="C510" s="3" t="s">
+    <row r="513" spans="3:3" ht="43.5">
+      <c r="C513" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="511" spans="2:3" ht="29">
-      <c r="C511" s="3" t="s">
+    <row r="514" spans="3:3" ht="29">
+      <c r="C514" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="512" spans="2:3" ht="29">
-      <c r="C512" s="3" t="s">
+    <row r="515" spans="3:3" ht="29">
+      <c r="C515" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="514" spans="3:3">
-      <c r="C514" s="3" t="s">
+    <row r="517" spans="3:3">
+      <c r="C517" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="516" spans="3:3">
-      <c r="C516" s="3" t="s">
+    <row r="519" spans="3:3">
+      <c r="C519" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="518" spans="3:3" ht="29">
-      <c r="C518" s="3" t="s">
+    <row r="521" spans="3:3" ht="29">
+      <c r="C521" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="519" spans="3:3" ht="29">
-      <c r="C519" s="3" t="s">
+    <row r="522" spans="3:3" ht="29">
+      <c r="C522" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="520" spans="3:3">
-      <c r="C520" s="3" t="s">
+    <row r="523" spans="3:3">
+      <c r="C523" s="3" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="522" spans="3:3">
-      <c r="C522" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="524" spans="3:3">
-      <c r="C524" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="525" spans="3:3">
       <c r="C525" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="527" spans="3:3">
       <c r="C527" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="529" spans="2:3">
-      <c r="C529" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3">
+      <c r="C528" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="530" spans="2:3">
       <c r="C530" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3">
+      <c r="C532" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3">
+      <c r="C533" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="533" spans="2:3" ht="29">
-      <c r="B533" s="16" t="s">
+    <row r="536" spans="2:3" ht="29">
+      <c r="B536" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C533" s="3" t="s">
+      <c r="C536" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="535" spans="2:3">
-      <c r="C535" s="3" t="s">
+    <row r="538" spans="2:3">
+      <c r="C538" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="537" spans="2:3">
-      <c r="C537" s="3" t="s">
+    <row r="540" spans="2:3">
+      <c r="C540" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="539" spans="2:3" ht="14.5" customHeight="1"/>
-    <row r="540" spans="2:3">
-      <c r="B540" t="s">
+    <row r="542" spans="2:3" ht="14.5" customHeight="1"/>
+    <row r="543" spans="2:3">
+      <c r="B543" t="s">
         <v>360</v>
       </c>
-      <c r="C540" s="3" t="e">
+      <c r="C543" s="3" t="e">
         <f>-- Give access to the schema</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="541" spans="2:3">
-      <c r="C541" s="3" t="s">
+    <row r="544" spans="2:3">
+      <c r="C544" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="543" spans="2:3">
-      <c r="C543" s="3" t="e">
+    <row r="546" spans="2:3">
+      <c r="C546" s="3" t="e">
         <f>-- Grant access to all existing tables</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="544" spans="2:3">
-      <c r="C544" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="546" spans="2:3">
-      <c r="C546" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
     <row r="547" spans="2:3">
       <c r="C547" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3">
+      <c r="C549" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3">
+      <c r="C550" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="549" spans="2:3">
-      <c r="C549" s="3" t="e">
+    <row r="552" spans="2:3">
+      <c r="C552" s="3" t="e">
         <f>-- Optional: Grant future table/sequence privileges too</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="550" spans="2:3">
-      <c r="C550" s="3" t="s">
+    <row r="553" spans="2:3">
+      <c r="C553" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="551" spans="2:3">
-      <c r="C551" s="3" t="s">
+    <row r="554" spans="2:3">
+      <c r="C554" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="553" spans="2:3" ht="17.5">
-      <c r="B553" s="34" t="s">
+    <row r="556" spans="2:3" ht="17.5">
+      <c r="B556" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="C553" s="3" t="s">
+      <c r="C556" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="555" spans="2:3">
-      <c r="B555" s="16" t="s">
+    <row r="558" spans="2:3">
+      <c r="B558" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C555" s="3" t="s">
+      <c r="C558" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="557" spans="2:3">
-      <c r="B557" s="16" t="s">
+    <row r="560" spans="2:3">
+      <c r="B560" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="C557" s="3" t="s">
+      <c r="C560" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="558" spans="2:3">
-      <c r="C558" s="3" t="s">
+    <row r="561" spans="2:3">
+      <c r="C561" s="3" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="560" spans="2:3">
-      <c r="C560" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="562" spans="2:3">
-      <c r="B562" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C562" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="563" spans="2:3">
@@ -8462,590 +8535,603 @@
       </c>
     </row>
     <row r="565" spans="2:3">
+      <c r="B565" s="16" t="s">
+        <v>382</v>
+      </c>
       <c r="C565" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="566" spans="2:3">
       <c r="C566" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="567" spans="2:3">
-      <c r="C567" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3">
+      <c r="C568" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="569" spans="2:3">
       <c r="C569" s="3" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="570" spans="2:3">
       <c r="C570" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="571" spans="2:3">
-      <c r="C571" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="572" spans="2:3">
       <c r="C572" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3">
+      <c r="C573" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="574" spans="2:3">
       <c r="C574" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="575" spans="2:3">
       <c r="C575" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="577" spans="2:3">
       <c r="C577" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="578" spans="2:3">
       <c r="C578" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="580" spans="2:3">
       <c r="C580" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="582" spans="2:3">
-      <c r="C582" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="581" spans="2:3">
+      <c r="C581" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="583" spans="2:3">
       <c r="C583" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="585" spans="2:3">
       <c r="C585" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="586" spans="2:3">
+      <c r="C586" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3">
+      <c r="C588" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="587" spans="2:3">
-      <c r="B587" s="16" t="s">
+    <row r="590" spans="2:3">
+      <c r="B590" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C587" s="3" t="s">
+      <c r="C590" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="588" spans="2:3">
-      <c r="C588" t="s">
+    <row r="591" spans="2:3">
+      <c r="C591" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="589" spans="2:3">
-      <c r="C589" t="s">
+    <row r="592" spans="2:3">
+      <c r="C592" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="592" spans="2:3">
-      <c r="C592" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="593" spans="2:3">
-      <c r="C593" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="594" spans="2:3">
-      <c r="B594" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="C594" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="595" spans="2:3">
       <c r="C595" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="596" spans="2:3">
       <c r="C596" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="597" spans="2:3">
+      <c r="B597" s="16" t="s">
+        <v>404</v>
+      </c>
       <c r="C597" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="598" spans="2:3">
+      <c r="C598" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="599" spans="2:3">
       <c r="C599" s="3" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="600" spans="2:3">
       <c r="C600" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="601" spans="2:3">
-      <c r="B601" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C601" s="3" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="602" spans="2:3">
       <c r="C602" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="603" spans="2:3">
       <c r="C603" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="604" spans="2:3">
+      <c r="B604" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="605" spans="2:3">
       <c r="C605" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="606" spans="2:3">
       <c r="C606" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="607" spans="2:3">
-      <c r="B607" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C607" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="608" spans="2:3">
       <c r="C608" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="609" spans="2:3">
+      <c r="C609" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="610" spans="2:3">
+      <c r="B610" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="611" spans="2:3">
+      <c r="C611" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="609" spans="2:3">
-      <c r="C609" t="s">
+    <row r="612" spans="2:3">
+      <c r="C612" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="610" spans="2:3">
-      <c r="C610" s="3" t="s">
+    <row r="613" spans="2:3">
+      <c r="C613" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="612" spans="2:3">
-      <c r="B612" s="16" t="s">
+    <row r="615" spans="2:3">
+      <c r="B615" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="C612" s="3" t="s">
+      <c r="C615" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="614" spans="2:3">
-      <c r="B614" s="16" t="s">
+    <row r="617" spans="2:3">
+      <c r="B617" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="C614" s="29" t="s">
+      <c r="C617" s="29" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="615" spans="2:3">
-      <c r="C615" s="29" t="s">
+    <row r="618" spans="2:3">
+      <c r="C618" s="29" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="616" spans="2:3">
-      <c r="C616" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="617" spans="2:3">
-      <c r="C617" s="37" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="618" spans="2:3">
-      <c r="C618" s="37" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="619" spans="2:3">
       <c r="C619" s="29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="620" spans="2:3">
+      <c r="C620" s="37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="621" spans="2:3">
+      <c r="C621" s="37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="622" spans="2:3">
+      <c r="C622" s="29" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="620" spans="2:3">
-      <c r="C620" s="29" t="s">
+    <row r="623" spans="2:3">
+      <c r="C623" s="29" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="621" spans="2:3">
-      <c r="C621" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="622" spans="2:3">
-      <c r="C622" s="37" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="623" spans="2:3">
-      <c r="C623" s="37" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="624" spans="2:3">
       <c r="C624" s="29" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="625" spans="3:3">
       <c r="C625" s="37" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="626" spans="3:3">
       <c r="C626" s="37" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="627" spans="3:3">
-      <c r="C627" s="37" t="s">
-        <v>439</v>
+      <c r="C627" s="29" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="628" spans="3:3">
       <c r="C628" s="37" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="629" spans="3:3">
       <c r="C629" s="37" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="630" spans="3:3">
       <c r="C630" s="37" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="631" spans="3:3">
       <c r="C631" s="37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="632" spans="3:3">
       <c r="C632" s="37" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
     </row>
     <row r="633" spans="3:3">
       <c r="C633" s="37" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="634" spans="3:3">
+      <c r="C634" s="37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="635" spans="3:3">
+      <c r="C635" s="37" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3">
+      <c r="C636" s="37" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="634" spans="3:3">
-      <c r="C634" s="29" t="s">
+    <row r="637" spans="3:3">
+      <c r="C637" s="29" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="635" spans="3:3">
-      <c r="C635" s="29" t="s">
+    <row r="638" spans="3:3">
+      <c r="C638" s="29" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="636" spans="3:3">
-      <c r="C636" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="637" spans="3:3">
-      <c r="C637" s="37" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="638" spans="3:3">
-      <c r="C638" s="37" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="639" spans="3:3">
       <c r="C639" s="29" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="640" spans="3:3">
       <c r="C640" s="37" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="641" spans="3:3">
       <c r="C641" s="37" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="642" spans="3:3">
-      <c r="C642" s="37" t="s">
-        <v>449</v>
+      <c r="C642" s="29" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="643" spans="3:3">
       <c r="C643" s="37" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="644" spans="3:3">
       <c r="C644" s="37" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="645" spans="3:3">
       <c r="C645" s="37" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="646" spans="3:3">
       <c r="C646" s="37" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="647" spans="3:3">
       <c r="C647" s="37" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="648" spans="3:3">
       <c r="C648" s="37" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="649" spans="3:3">
       <c r="C649" s="37" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="650" spans="3:3">
       <c r="C650" s="37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="651" spans="3:3">
+      <c r="C651" s="37" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="652" spans="3:3">
+      <c r="C652" s="37" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="653" spans="3:3">
+      <c r="C653" s="37" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="651" spans="3:3">
-      <c r="C651" s="29" t="s">
+    <row r="654" spans="3:3">
+      <c r="C654" s="29" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="652" spans="3:3">
-      <c r="C652" s="29" t="s">
+    <row r="655" spans="3:3">
+      <c r="C655" s="29" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="653" spans="3:3">
-      <c r="C653" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="654" spans="3:3">
-      <c r="C654" s="37" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="655" spans="3:3">
-      <c r="C655" s="37" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="656" spans="3:3">
       <c r="C656" s="29" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="657" spans="3:3">
       <c r="C657" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="658" spans="3:3">
       <c r="C658" s="37" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="659" spans="3:3">
-      <c r="C659" s="37" t="s">
-        <v>448</v>
+      <c r="C659" s="29" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="660" spans="3:3">
       <c r="C660" s="37" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="661" spans="3:3">
       <c r="C661" s="37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="662" spans="3:3">
       <c r="C662" s="37" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="663" spans="3:3">
       <c r="C663" s="37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="664" spans="3:3">
       <c r="C664" s="37" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="665" spans="3:3">
       <c r="C665" s="37" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="666" spans="3:3">
       <c r="C666" s="37" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="667" spans="3:3">
       <c r="C667" s="37" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="668" spans="3:3">
       <c r="C668" s="37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="669" spans="3:3">
       <c r="C669" s="37" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="670" spans="3:3">
       <c r="C670" s="37" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="671" spans="3:3">
       <c r="C671" s="37" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="672" spans="3:3">
       <c r="C672" s="37" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="673" spans="3:3">
       <c r="C673" s="37" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="674" spans="3:3">
       <c r="C674" s="37" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="675" spans="3:3">
       <c r="C675" s="37" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="676" spans="3:3">
       <c r="C676" s="37" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="677" spans="3:3">
       <c r="C677" s="37" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="678" spans="3:3">
       <c r="C678" s="37" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="679" spans="3:3">
       <c r="C679" s="37" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="680" spans="3:3">
       <c r="C680" s="37" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="681" spans="3:3">
       <c r="C681" s="37" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="682" spans="3:3">
       <c r="C682" s="37" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="683" spans="3:3">
       <c r="C683" s="37" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="684" spans="3:3">
       <c r="C684" s="37" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="685" spans="3:3">
       <c r="C685" s="37" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="686" spans="3:3">
       <c r="C686" s="37" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="687" spans="3:3">
       <c r="C687" s="37" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="688" spans="3:3">
       <c r="C688" s="37" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="689" spans="3:3">
       <c r="C689" s="37" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="690" spans="3:3">
       <c r="C690" s="37" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="691" spans="3:3">
       <c r="C691" s="37" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="692" spans="3:3">
+      <c r="C692" s="37" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="693" spans="3:3">
+      <c r="C693" s="37" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="694" spans="3:3">
+      <c r="C694" s="37" t="s">
         <v>493</v>
       </c>
     </row>
@@ -9121,10 +9207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED613409-59F7-4B7A-B595-FACB16658F87}">
-  <dimension ref="B1:C58"/>
+  <dimension ref="B1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9166,11 +9252,17 @@
       </c>
     </row>
     <row r="6" spans="2:3">
+      <c r="B6" s="16" t="s">
+        <v>511</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="7" spans="2:3">
+      <c r="B7" s="16" t="s">
+        <v>536</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>507</v>
       </c>
@@ -9192,16 +9284,13 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="16" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="16" t="s">
-        <v>536</v>
-      </c>
       <c r="C13" s="3" t="s">
         <v>513</v>
       </c>
@@ -9217,9 +9306,6 @@
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="16" t="s">
-        <v>526</v>
-      </c>
       <c r="C16" s="3" t="s">
         <v>516</v>
       </c>
@@ -9288,118 +9374,134 @@
         <v>527</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="16" t="s">
+    <row r="32" spans="2:3" ht="116">
+      <c r="B32" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="C33" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="C34" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="16" t="s">
+    <row r="40" spans="2:3" ht="116">
+      <c r="B40" s="59" t="s">
+        <v>733</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="C39" s="3" t="s">
+    <row r="43" spans="2:3">
+      <c r="C43" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="3" t="s">
+    <row r="44" spans="2:3">
+      <c r="C44" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="3" t="s">
+    <row r="45" spans="2:3">
+      <c r="C45" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="C42" s="3" t="s">
+    <row r="46" spans="2:3">
+      <c r="C46" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="29">
-      <c r="B44" s="16" t="s">
+    <row r="48" spans="2:3" ht="29">
+      <c r="B48" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="49" t="s">
+    <row r="50" spans="2:3">
+      <c r="B50" s="49" t="s">
         <v>669</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="C47" s="3" t="s">
+    <row r="51" spans="2:3">
+      <c r="C51" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="48" t="s">
+    <row r="52" spans="2:3">
+      <c r="B52" s="48" t="s">
         <v>671</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="3" t="s">
+    <row r="53" spans="2:3">
+      <c r="C53" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="3" t="s">
+    <row r="54" spans="2:3">
+      <c r="C54" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="52" spans="3:3" ht="29">
-      <c r="C52" s="3" t="s">
+    <row r="56" spans="2:3" ht="29">
+      <c r="C56" s="3" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="3" t="s">
+    <row r="58" spans="2:3">
+      <c r="C58" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="56" spans="3:3" ht="159.5">
-      <c r="C56" s="3" t="s">
+    <row r="60" spans="2:3" ht="159.5">
+      <c r="C60" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="58" spans="3:3" ht="130.5">
-      <c r="C58" s="3" t="s">
+    <row r="62" spans="2:3" ht="130.5">
+      <c r="C62" s="3" t="s">
         <v>670</v>
       </c>
     </row>
@@ -10296,8 +10398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120CCC8B-7F77-4248-9B3B-6896FAFAD032}">
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10382,6 +10484,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/development-notes.xlsx
+++ b/development-notes.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Developer\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C138E403-63D0-428A-8763-1A79D484DB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761CDB63-17B5-4DB8-BC4B-51517F3A1203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Kafka" sheetId="2" r:id="rId2"/>
-    <sheet name="Kubefwd" sheetId="3" r:id="rId3"/>
-    <sheet name="Linux Commands" sheetId="4" r:id="rId4"/>
-    <sheet name="Python" sheetId="5" r:id="rId5"/>
-    <sheet name="PSQL" sheetId="6" r:id="rId6"/>
-    <sheet name="Kubernetes" sheetId="10" r:id="rId7"/>
-    <sheet name="JS" sheetId="11" r:id="rId8"/>
-    <sheet name="Docker" sheetId="7" r:id="rId9"/>
-    <sheet name="Authentication" sheetId="9" r:id="rId10"/>
+    <sheet name="Authentication" sheetId="9" r:id="rId2"/>
+    <sheet name="Kafka" sheetId="2" r:id="rId3"/>
+    <sheet name="Kubefwd" sheetId="3" r:id="rId4"/>
+    <sheet name="Linux Commands" sheetId="4" r:id="rId5"/>
+    <sheet name="Python" sheetId="5" r:id="rId6"/>
+    <sheet name="PSQL" sheetId="6" r:id="rId7"/>
+    <sheet name="Kubernetes" sheetId="10" r:id="rId8"/>
+    <sheet name="JS" sheetId="11" r:id="rId9"/>
+    <sheet name="Docker" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="788">
   <si>
     <t>fungsi</t>
   </si>
@@ -5484,12 +5484,255 @@
       <t>connect-status</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">curl -X POST http://localhost:8083/connectors \
+  -H "Content-Type: application/json" \
+  -d '{
+    "name": "source-jalaauthv2",
+    "config": {
+      "connector.class": "io.confluent.connect.jdbc.JdbcSourceConnector",
+      "timestamp.column.name": "updated_at",
+      "dialect.name": "MySqlDatabaseDialect",
+      "incrementing.column.name": "id",
+      "connection.password": "dbjalaauth2",
+      "validate.non.null": "false",
+      "tasks.max": "1",
+      "connection.attempts": "10",
+      "table.types": "TABLE",
+      "table.whitelist": "dbjalaauth2.dbauth_users,dbjalaauth2.dbauth_oauth_clients",
+      "mode": "timestamp+incrementing",
+      "topic.prefix": "source-jalaauthv2",
+      "connection.max.retries": "100",
+      "connection.user": "dbjalaauth2",
+      "poll.interval.ms": "2000",
+      "value.converter.schemas.enable": "true",
+      "name": "source-jalaauthv2",
+      "numeric.mapping": "best_fit",
+      "connection.url": "jdbc:mysql://jalaauth2-db-0.jalaauth2-db.k8s-rbac.svc.cluster.local:3306/dbjalaauth2",
+      "value.converter": "org.apache.kafka.connect.json.JsonConverter",
+      "key.converter": "org.apache.kafka.connect.storage.StringConverter",
+      "pk.mode": "record_key",
+      "pk.fields": "id"
+    }
+  }'
+</t>
+  </si>
+  <si>
+    <t>Sink Connector</t>
+  </si>
+  <si>
+    <t>Source Connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -X POST http://localhost:8083/connectors \
+  -H "Content-Type: application/json" \
+  -d '{
+    "name": "sink-dbjalaauth2-to-dbelibrary",
+    "config": {
+      "connector.class": "io.confluent.connect.jdbc.JdbcSinkConnector",
+      "table.name.format": "dbjalaauth2_auth_users",
+      "connection.password": "test1234",
+      "validate.non.null": "false",
+      "tasks.max": "1",
+      "topics": "source-jalaauthv2dbauth_users",
+      "delete.enabled": "false",
+      "auto.evolve": "true",
+      "connection.user": "user_dbelibrary",
+      "value.converter.schemas.enable": "true",
+      "name": "sink-dbjalaauth2-to-dbelibrary",
+      "auto.create": "true",
+      "connection.url": "jdbc:postgresql://elibrary-db-0.elibrary-db-service.k8s-api-elibrary.svc.cluster.local:5432/dbelibrary",
+      "value.converter": "org.apache.kafka.connect.json.JsonConverter",
+      "insert.mode": "upsert",
+      "key.converter": "org.apache.kafka.connect.storage.StringConverter",
+      "pk.mode": "record_value",
+      "pk.fields": "id"
+    }
+  }'
+</t>
+  </si>
+  <si>
+    <t>sofwadev@123sofwadev@123</t>
+  </si>
+  <si>
+    <t>sofwa</t>
+  </si>
+  <si>
+    <t>Host / Apps</t>
+  </si>
+  <si>
+    <t>sofwasofwa@123</t>
+  </si>
+  <si>
+    <t>Portainer (jalaera.com, dev-jalaera.com)</t>
+  </si>
+  <si>
+    <t>App Jenkins</t>
+  </si>
+  <si>
+    <t>shofwa_dev</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.26.11.9 </t>
+  </si>
+  <si>
+    <t>jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>usrd</t>
+  </si>
+  <si>
+    <t>sA!M_62p$@</t>
+  </si>
+  <si>
+    <t>PPK</t>
+  </si>
+  <si>
+    <t>oprcontrold.ppk</t>
+  </si>
+  <si>
+    <t>10.26.11.172</t>
+  </si>
+  <si>
+    <t>Seiko@quartz3</t>
+  </si>
+  <si>
+    <t>ticketing.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>Portainer (jalanet.id)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Database </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oprcontrol.jalaniagaelok.web.id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User MySQL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oprcontrol.jalaniagaelok.web.id</t>
+    </r>
+  </si>
+  <si>
+    <t>jenkins.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>10.26.11.28</t>
+  </si>
+  <si>
+    <t>jalaera.com</t>
+  </si>
+  <si>
+    <t>User MySQL Production</t>
+  </si>
+  <si>
+    <t>10.26.11.7</t>
+  </si>
+  <si>
+    <t>courierpfm.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>10.26.11.112</t>
+  </si>
+  <si>
+    <t>jpar.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>10.26.11.111</t>
+  </si>
+  <si>
+    <t>192.168.132.82</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>monyetloe</t>
+  </si>
+  <si>
+    <t>Server Developer 82</t>
+  </si>
+  <si>
+    <t>cors.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>ub-appd.ppk</t>
+  </si>
+  <si>
+    <t>corsd.ppk</t>
+  </si>
+  <si>
+    <t>dsa.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>dsa.ppk</t>
+  </si>
+  <si>
+    <t>elibrary.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>elibrary_v2.ppk</t>
+  </si>
+  <si>
+    <t>stagingd.ppk</t>
+  </si>
+  <si>
+    <t>jenkinsd.ppk</t>
+  </si>
+  <si>
+    <t>jpard1.ppk</t>
+  </si>
+  <si>
+    <t>courierpfmd1.ppk</t>
+  </si>
+  <si>
+    <t>ticketingd.ppk</t>
+  </si>
+  <si>
+    <t>yesplus.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>yesplus.ppk</t>
+  </si>
+  <si>
+    <t>authorize_oprctrlweb.ppk</t>
+  </si>
+  <si>
+    <t>test.jalaniagaelok.web.id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5590,6 +5833,15 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5721,14 +5973,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -5736,7 +5988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5840,31 +6092,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5872,37 +6103,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5924,6 +6138,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6242,8 +6522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115389D8-5A82-4357-A761-D97F13C3EBF0}">
   <dimension ref="B1:G694"/>
   <sheetViews>
-    <sheetView topLeftCell="A416" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B417" sqref="B417"/>
+    <sheetView topLeftCell="A520" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B528" sqref="B528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6341,33 +6621,33 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.5" customHeight="1">
-      <c r="C24" s="61"/>
+      <c r="C24" s="47"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="C25" s="61"/>
+      <c r="C25" s="47"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="C26" s="61"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="C27" s="61"/>
+      <c r="C27" s="47"/>
     </row>
     <row r="28" spans="2:3" ht="29" customHeight="1">
-      <c r="C28" s="61"/>
+      <c r="C28" s="47"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="61"/>
+      <c r="C29" s="47"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="C30" s="61"/>
+      <c r="C30" s="47"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="C31" s="61"/>
+      <c r="C31" s="47"/>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" s="3" t="s">
@@ -6390,43 +6670,43 @@
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="61"/>
+      <c r="C41" s="47"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="61"/>
+      <c r="C42" s="47"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="61"/>
+      <c r="C43" s="47"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="61"/>
+      <c r="C44" s="47"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="61"/>
+      <c r="C45" s="47"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="61"/>
+      <c r="C46" s="47"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="61"/>
+      <c r="C47" s="47"/>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="61"/>
+      <c r="C48" s="47"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="C49" s="61"/>
+      <c r="C49" s="47"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="C50" s="61"/>
+      <c r="C50" s="47"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="17"/>
-      <c r="C51" s="62"/>
+      <c r="C51" s="48"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="15" t="s">
@@ -7879,7 +8159,7 @@
       </c>
     </row>
     <row r="405" spans="2:3" ht="333.5">
-      <c r="B405" s="64" t="s">
+      <c r="B405" s="50" t="s">
         <v>716</v>
       </c>
       <c r="C405" s="3" t="s">
@@ -7887,7 +8167,7 @@
       </c>
     </row>
     <row r="407" spans="2:3" ht="145">
-      <c r="B407" s="48" t="s">
+      <c r="B407" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C407" s="3" t="s">
@@ -7895,23 +8175,23 @@
       </c>
     </row>
     <row r="408" spans="2:3">
-      <c r="B408" s="66"/>
-      <c r="C408" s="63"/>
+      <c r="B408" s="52"/>
+      <c r="C408" s="49"/>
     </row>
     <row r="409" spans="2:3" ht="72.5">
-      <c r="B409" s="66" t="s">
+      <c r="B409" s="52" t="s">
         <v>720</v>
       </c>
-      <c r="C409" s="63" t="s">
+      <c r="C409" s="49" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="410" spans="2:3">
-      <c r="B410" s="66"/>
-      <c r="C410" s="63"/>
+      <c r="B410" s="52"/>
+      <c r="C410" s="49"/>
     </row>
     <row r="411" spans="2:3" ht="43.5">
-      <c r="B411" s="59" t="s">
+      <c r="B411" s="46" t="s">
         <v>717</v>
       </c>
       <c r="C411" s="3" t="s">
@@ -7919,11 +8199,11 @@
       </c>
     </row>
     <row r="412" spans="2:3">
-      <c r="B412" s="67"/>
-      <c r="C412" s="63"/>
+      <c r="B412" s="53"/>
+      <c r="C412" s="49"/>
     </row>
     <row r="413" spans="2:3">
-      <c r="B413" s="65" t="s">
+      <c r="B413" s="51" t="s">
         <v>714</v>
       </c>
       <c r="C413" t="s">
@@ -7931,52 +8211,52 @@
       </c>
     </row>
     <row r="414" spans="2:3">
-      <c r="B414" s="66"/>
-      <c r="C414" s="63"/>
+      <c r="B414" s="52"/>
+      <c r="C414" s="49"/>
     </row>
     <row r="415" spans="2:3" ht="29">
-      <c r="B415" s="66" t="s">
+      <c r="B415" s="52" t="s">
         <v>725</v>
       </c>
-      <c r="C415" s="63" t="s">
+      <c r="C415" s="49" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="416" spans="2:3" ht="58">
-      <c r="B416" s="66" t="s">
+      <c r="B416" s="52" t="s">
         <v>723</v>
       </c>
-      <c r="C416" s="63" t="s">
+      <c r="C416" s="49" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="417" spans="2:7" ht="145">
-      <c r="B417" s="48" t="s">
+      <c r="B417" s="41" t="s">
         <v>729</v>
       </c>
-      <c r="C417" s="63" t="s">
+      <c r="C417" s="49" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="418" spans="2:7">
-      <c r="B418" s="66"/>
-      <c r="C418" s="63"/>
+      <c r="B418" s="52"/>
+      <c r="C418" s="49"/>
     </row>
     <row r="419" spans="2:7" ht="58">
-      <c r="B419" s="66" t="s">
+      <c r="B419" s="52" t="s">
         <v>724</v>
       </c>
-      <c r="C419" s="63" t="s">
+      <c r="C419" s="49" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="420" spans="2:7">
-      <c r="B420" s="66"/>
-      <c r="C420" s="63"/>
+      <c r="B420" s="52"/>
+      <c r="C420" s="49"/>
     </row>
     <row r="421" spans="2:7">
-      <c r="B421" s="66"/>
-      <c r="C421" s="63"/>
+      <c r="B421" s="52"/>
+      <c r="C421" s="49"/>
     </row>
     <row r="422" spans="2:7">
       <c r="F422" s="16"/>
@@ -9149,1381 +9429,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1726B2-043F-4F9C-A7D9-6122F0CC1D1C}">
-  <dimension ref="B1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="34" style="22" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" customWidth="1"/>
-    <col min="4" max="4" width="37" style="12" customWidth="1"/>
-    <col min="5" max="6" width="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="54" t="s">
-        <v>681</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>682</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>684</v>
-      </c>
-      <c r="D2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="C3" t="s">
-        <v>686</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>688</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{24C91F01-C48B-430F-83A6-6702C492417D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED613409-59F7-4B7A-B595-FACB16658F87}">
-  <dimension ref="B1:C62"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="46.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="103.6328125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="409.5">
-      <c r="B3" s="41" t="s">
-        <v>503</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="409.5">
-      <c r="B4" s="41" t="s">
-        <v>504</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="C10" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="C13" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="C14" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="C16" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="C17" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="C21" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="C25" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="C26" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="C27" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="C30" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="116">
-      <c r="B32" s="59" t="s">
-        <v>730</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="C35" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="C36" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="C37" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="116">
-      <c r="B40" s="59" t="s">
-        <v>733</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="C43" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="C44" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="C45" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="C46" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="29">
-      <c r="B48" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="49" t="s">
-        <v>669</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="C51" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="48" t="s">
-        <v>671</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="C53" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="C54" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="29">
-      <c r="C56" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="C58" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="159.5">
-      <c r="C60" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="130.5">
-      <c r="C62" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B0D8-ABA7-483C-A39A-AC8B2DF5DBEC}">
-  <dimension ref="B1:C39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="46.6328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="C3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="2:3" ht="23.5">
-      <c r="C7" s="44" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" s="31"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="31" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="C10" s="45" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="C12" s="31" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="C13" s="31" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="31" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="31" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="3:3" ht="17.5">
-      <c r="C21" s="34" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="31"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="31" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="31"/>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="31" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="31" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="31" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="31" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" display="https://github.com/txn2/kubefwd/releases" xr:uid="{9F9E6254-A724-4805-87AD-C129F4B37179}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639D6A1C-2407-46B7-9659-72D75688BA4A}">
-  <dimension ref="B1:C128"/>
-  <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="28.6328125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="46" t="s">
-        <v>501</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="C4" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="C5" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="C7" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="C13" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="12" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="C34" s="12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="C35" s="12" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="C36" s="12" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="C37" s="12" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="C39" s="12" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="12" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="12" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="C43" s="12" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="C44" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="C45" s="12" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="C47" s="12" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="C48" s="12" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="C50" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="C52" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="C55" s="12" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="C56" s="12" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" s="12" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="C59" s="12" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="C60" s="12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="12" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="12" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="12" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="12" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="12" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="12" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="12" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="12" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="12" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="12" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="12" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="12" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="12" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="12" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="12" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="12" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="12" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3">
-      <c r="C102" s="12" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3">
-      <c r="C104" s="12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3">
-      <c r="C106" s="12" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3">
-      <c r="C107" s="12" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3">
-      <c r="C109" s="12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3">
-      <c r="C110" s="12" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3">
-      <c r="C111" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3">
-      <c r="C112" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3">
-      <c r="C113" s="12" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3">
-      <c r="C115" s="12" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3">
-      <c r="C116" s="12" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="12" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3">
-      <c r="C119" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3">
-      <c r="C121" s="12" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3">
-      <c r="C122" s="12" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3">
-      <c r="C123" s="12" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3">
-      <c r="C124" s="12" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3">
-      <c r="C127" s="12" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3">
-      <c r="C128" s="12" t="s">
-        <v>625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60C995-DE2F-4EC0-AD4B-1AF09AFEC3B6}">
-  <dimension ref="B1:D55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="38.90625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="134.81640625" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="46" t="s">
-        <v>501</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="C4" s="12" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="C5" s="12" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="C7" s="12" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" s="12" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="C12" s="12" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="C14" s="12" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="12" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="12" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="12" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="12" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="12" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="12" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="12" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="12" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="12" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="12" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="12" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="12" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="12" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="12" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="12" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="12" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="12" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="12" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="12" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="12" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="D50" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="D51" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="D52" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="12" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="12" t="s">
-        <v>667</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B241AB5B-9E8D-4A8A-AF31-19B6A43E3278}">
-  <dimension ref="B1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="50.7265625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="78.81640625" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="54" t="s">
-        <v>501</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="87">
-      <c r="B2" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="53" t="s">
-        <v>675</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="290">
-      <c r="B6" s="52" t="s">
-        <v>707</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="246.5">
-      <c r="B8" s="60" t="s">
-        <v>708</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="22" t="s">
-        <v>712</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>711</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120CCC8B-7F77-4248-9B3B-6896FAFAD032}">
-  <dimension ref="B1:C16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="44" style="22" customWidth="1"/>
-    <col min="3" max="3" width="72.26953125" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="46" t="s">
-        <v>501</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="53" t="s">
-        <v>691</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="C4" s="12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="53" t="s">
-        <v>694</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="53"/>
-    </row>
-    <row r="8" spans="2:3" ht="29">
-      <c r="B8" s="53"/>
-      <c r="C8" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="53" t="s">
-        <v>698</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" s="12" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="C12" s="12" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="53" t="s">
-        <v>706</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="12" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="C16" s="12" t="s">
-        <v>705</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DFC42C-DB38-4732-81A5-063E6C4E38ED}">
-  <dimension ref="B1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="54.6328125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" style="58" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="25">
-      <c r="B2" s="59" t="s">
-        <v>700</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46823263-4C1F-4BCA-80B2-7A0FB13B4B6C}">
   <dimension ref="B1:C3"/>
   <sheetViews>
@@ -10533,20 +9438,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29" style="50" customWidth="1"/>
+    <col min="2" max="2" width="29" style="42" customWidth="1"/>
     <col min="3" max="3" width="49.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="43" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>677</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -10554,11 +9459,1742 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="58">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="42" t="s">
         <v>678</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1726B2-043F-4F9C-A7D9-6122F0CC1D1C}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="40.81640625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>681</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>682</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="D2" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="D3" s="54" t="s">
+        <v>687</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>686</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="55" t="s">
+        <v>756</v>
+      </c>
+      <c r="C4" s="59">
+        <v>30779</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>739</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="55" t="s">
+        <v>742</v>
+      </c>
+      <c r="C5" s="60">
+        <v>30779</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>739</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="55" t="s">
+        <v>743</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>744</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="62" t="s">
+        <v>748</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>747</v>
+      </c>
+      <c r="C7" s="59">
+        <v>21</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>749</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="55" t="s">
+        <v>757</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="55" t="s">
+        <v>758</v>
+      </c>
+      <c r="C10" s="59">
+        <v>3306</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="61" t="s">
+        <v>755</v>
+      </c>
+      <c r="C11" s="59">
+        <v>9022</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>686</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="61" t="s">
+        <v>759</v>
+      </c>
+      <c r="C12" s="59">
+        <v>9022</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="61" t="s">
+        <v>761</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="C13" s="59">
+        <v>9022</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="55" t="s">
+        <v>762</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="C14" s="59">
+        <v>3306</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="61" t="s">
+        <v>764</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="61" t="s">
+        <v>766</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="55" t="s">
+        <v>771</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="59">
+        <v>22</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>770</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="61" t="s">
+        <v>772</v>
+      </c>
+      <c r="C18" s="59">
+        <v>9022</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="61" t="s">
+        <v>775</v>
+      </c>
+      <c r="C19" s="59">
+        <v>9022</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="61" t="s">
+        <v>777</v>
+      </c>
+      <c r="C20" s="59">
+        <v>9022</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="61" t="s">
+        <v>784</v>
+      </c>
+      <c r="C21" s="59">
+        <v>9022</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="61" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>768</v>
+      </c>
+      <c r="C22" s="59">
+        <v>22</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>786</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{24C91F01-C48B-430F-83A6-6702C492417D}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{8A36CC60-3FF8-486F-A57A-2FCE3E423394}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{C46BCC2B-57C3-42F5-91DA-355BA1A68BAA}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{BD35DC61-2885-4DAD-A693-77C72290AA71}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{A4191F25-F8DB-4BA2-9383-94507B8CF125}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{5D808086-2993-4596-A0F3-E3B59B3D8032}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{725DFE48-729B-482A-B8E3-42BF5EED596D}"/>
+    <hyperlink ref="E16" r:id="rId8" xr:uid="{89275E3E-706F-49B0-AC03-CFDC6F0667F0}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{F2917D73-50DB-4A5C-ADC9-53CA374F6659}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{CEE22231-9B6C-4D23-A219-F662D8B125FD}"/>
+    <hyperlink ref="E20" r:id="rId11" xr:uid="{9A6C2BE5-8187-4D7A-85F8-CAE962FE6053}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED613409-59F7-4B7A-B595-FACB16658F87}">
+  <dimension ref="B1:C66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="46.1796875" style="55" customWidth="1"/>
+    <col min="3" max="3" width="103.6328125" style="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="69" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="409.5">
+      <c r="B3" s="70" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="409.5">
+      <c r="B4" s="70" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="55" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="55" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="55" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="55" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="55" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="55" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="55" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="55" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="55" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="55" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" s="55" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" s="55" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" s="55" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" s="55" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" s="55" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" s="55" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="55" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" s="55" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="116">
+      <c r="B32" s="71" t="s">
+        <v>730</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="55" t="s">
+        <v>532</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" s="55" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="55" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="55" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="55" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="116">
+      <c r="B40" s="71" t="s">
+        <v>733</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" s="55" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="C44" s="55" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="55" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" s="55" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="29">
+      <c r="B48" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="72" t="s">
+        <v>669</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" s="55" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="73" t="s">
+        <v>671</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" s="55" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" s="55" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="29">
+      <c r="C56" s="55" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" s="55" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="159.5">
+      <c r="B60" s="73" t="s">
+        <v>736</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="409.5">
+      <c r="C62" s="55" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="130.5">
+      <c r="B64" s="73" t="s">
+        <v>735</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" ht="391.5">
+      <c r="C66" s="55" t="s">
+        <v>737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B0D8-ABA7-483C-A39A-AC8B2DF5DBEC}">
+  <dimension ref="B1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="46.6328125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" style="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" s="54" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="2:3" ht="23.5">
+      <c r="C7" s="65" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="66"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="66" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="67" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="66"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="66" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="66" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="66"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="66" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="66"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="66" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="54"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="3:3" ht="17.5">
+      <c r="C21" s="68" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="66"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="66" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="66"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="66" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="66"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="66" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="66"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="66" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="55" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="55" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="66" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="55" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="55" t="s">
+        <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="https://github.com/txn2/kubefwd/releases" xr:uid="{9F9E6254-A724-4805-87AD-C129F4B37179}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639D6A1C-2407-46B7-9659-72D75688BA4A}">
+  <dimension ref="B1:C128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="28.6328125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="54" t="s">
+        <v>627</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="54" t="s">
+        <v>628</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" s="12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" s="12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="12" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="12" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" s="12" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="C44" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="C47" s="12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="12" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="C50" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="54" t="s">
+        <v>629</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" s="12" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="12" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="12" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="12" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="12" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="12" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="12" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="12" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="12" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="12" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="12" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="12" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="12" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="12" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="12" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="12" t="s">
+        <v>625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60C995-DE2F-4EC0-AD4B-1AF09AFEC3B6}">
+  <dimension ref="B1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="38.90625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="134.81640625" style="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="54" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="54" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="54" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="54" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="54" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="54" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="54" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="54" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="54" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="54" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="54" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="54" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="54" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="54" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="54" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="54" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="54" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="54" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="54" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="54" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="54" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="54" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="54" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="54" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="54" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="54" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="54" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="54" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="54" t="s">
+        <v>660</v>
+      </c>
+      <c r="D50" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="54" t="s">
+        <v>662</v>
+      </c>
+      <c r="D51" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="54" t="s">
+        <v>664</v>
+      </c>
+      <c r="D52" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="54" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="54" t="s">
+        <v>667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B241AB5B-9E8D-4A8A-AF31-19B6A43E3278}">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="50.7265625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="82.26953125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="87">
+      <c r="B2" s="75" t="s">
+        <v>673</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="76" t="s">
+        <v>675</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="290">
+      <c r="B6" s="75" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="246.5">
+      <c r="B8" s="77" t="s">
+        <v>708</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>711</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120CCC8B-7F77-4248-9B3B-6896FAFAD032}">
+  <dimension ref="B1:C16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="44" style="54" customWidth="1"/>
+    <col min="3" max="3" width="72.26953125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="76" t="s">
+        <v>691</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="76" t="s">
+        <v>694</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="76"/>
+    </row>
+    <row r="8" spans="2:3" ht="29">
+      <c r="B8" s="76"/>
+      <c r="C8" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="76" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="76" t="s">
+        <v>706</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="12" t="s">
+        <v>705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DFC42C-DB38-4732-81A5-063E6C4E38ED}">
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="54.6328125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="25">
+      <c r="B2" s="71" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/development-notes.xlsx
+++ b/development-notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Developer\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761CDB63-17B5-4DB8-BC4B-51517F3A1203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6EF24-738C-4564-9CE3-5298F3671904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="790">
   <si>
     <t>fungsi</t>
   </si>
@@ -5726,6 +5726,12 @@
   </si>
   <si>
     <t>test.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>Contoh komposisi vue di github ms-hris-web branch developer</t>
+  </si>
+  <si>
+    <t>package.json, vue.config.js, main.js, app.js, app.scss</t>
   </si>
 </sst>
 </file>
@@ -5988,7 +5994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6118,25 +6124,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -6160,9 +6154,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6204,6 +6195,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6621,33 +6618,33 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="73" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.5" customHeight="1">
-      <c r="C24" s="47"/>
+      <c r="C24" s="73"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="C25" s="47"/>
+      <c r="C25" s="73"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="C26" s="47"/>
+      <c r="C26" s="73"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="C27" s="47"/>
+      <c r="C27" s="73"/>
     </row>
     <row r="28" spans="2:3" ht="29" customHeight="1">
-      <c r="C28" s="47"/>
+      <c r="C28" s="73"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="47"/>
+      <c r="C29" s="73"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="C30" s="47"/>
+      <c r="C30" s="73"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="C31" s="47"/>
+      <c r="C31" s="73"/>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" s="3" t="s">
@@ -6670,43 +6667,43 @@
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="73" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="47"/>
+      <c r="C41" s="73"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="47"/>
+      <c r="C42" s="73"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="47"/>
+      <c r="C43" s="73"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="47"/>
+      <c r="C44" s="73"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="47"/>
+      <c r="C45" s="73"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="47"/>
+      <c r="C46" s="73"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="47"/>
+      <c r="C47" s="73"/>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="47"/>
+      <c r="C48" s="73"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="C49" s="47"/>
+      <c r="C49" s="73"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="C50" s="47"/>
+      <c r="C50" s="73"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="17"/>
-      <c r="C51" s="48"/>
+      <c r="C51" s="74"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="15" t="s">
@@ -8159,7 +8156,7 @@
       </c>
     </row>
     <row r="405" spans="2:3" ht="333.5">
-      <c r="B405" s="50" t="s">
+      <c r="B405" s="46" t="s">
         <v>716</v>
       </c>
       <c r="C405" s="3" t="s">
@@ -8175,20 +8172,20 @@
       </c>
     </row>
     <row r="408" spans="2:3">
-      <c r="B408" s="52"/>
-      <c r="C408" s="49"/>
+      <c r="B408" s="48"/>
+      <c r="C408" s="23"/>
     </row>
     <row r="409" spans="2:3" ht="72.5">
-      <c r="B409" s="52" t="s">
+      <c r="B409" s="48" t="s">
         <v>720</v>
       </c>
-      <c r="C409" s="49" t="s">
+      <c r="C409" s="23" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="410" spans="2:3">
-      <c r="B410" s="52"/>
-      <c r="C410" s="49"/>
+      <c r="B410" s="48"/>
+      <c r="C410" s="23"/>
     </row>
     <row r="411" spans="2:3" ht="43.5">
       <c r="B411" s="46" t="s">
@@ -8199,11 +8196,11 @@
       </c>
     </row>
     <row r="412" spans="2:3">
-      <c r="B412" s="53"/>
-      <c r="C412" s="49"/>
+      <c r="B412" s="49"/>
+      <c r="C412" s="23"/>
     </row>
     <row r="413" spans="2:3">
-      <c r="B413" s="51" t="s">
+      <c r="B413" s="47" t="s">
         <v>714</v>
       </c>
       <c r="C413" t="s">
@@ -8211,22 +8208,22 @@
       </c>
     </row>
     <row r="414" spans="2:3">
-      <c r="B414" s="52"/>
-      <c r="C414" s="49"/>
+      <c r="B414" s="48"/>
+      <c r="C414" s="23"/>
     </row>
     <row r="415" spans="2:3" ht="29">
-      <c r="B415" s="52" t="s">
+      <c r="B415" s="48" t="s">
         <v>725</v>
       </c>
-      <c r="C415" s="49" t="s">
+      <c r="C415" s="23" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="416" spans="2:3" ht="58">
-      <c r="B416" s="52" t="s">
+      <c r="B416" s="48" t="s">
         <v>723</v>
       </c>
-      <c r="C416" s="49" t="s">
+      <c r="C416" s="23" t="s">
         <v>722</v>
       </c>
     </row>
@@ -8234,29 +8231,29 @@
       <c r="B417" s="41" t="s">
         <v>729</v>
       </c>
-      <c r="C417" s="49" t="s">
+      <c r="C417" s="23" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="418" spans="2:7">
-      <c r="B418" s="52"/>
-      <c r="C418" s="49"/>
+      <c r="B418" s="48"/>
+      <c r="C418" s="23"/>
     </row>
     <row r="419" spans="2:7" ht="58">
-      <c r="B419" s="52" t="s">
+      <c r="B419" s="48" t="s">
         <v>724</v>
       </c>
-      <c r="C419" s="49" t="s">
+      <c r="C419" s="23" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="420" spans="2:7">
-      <c r="B420" s="52"/>
-      <c r="C420" s="49"/>
+      <c r="B420" s="48"/>
+      <c r="C420" s="23"/>
     </row>
     <row r="421" spans="2:7">
-      <c r="B421" s="52"/>
-      <c r="C421" s="49"/>
+      <c r="B421" s="48"/>
+      <c r="C421" s="23"/>
     </row>
     <row r="422" spans="2:7">
       <c r="F422" s="16"/>
@@ -9476,18 +9473,18 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" style="51" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="59" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="28.81640625" style="54" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" style="50" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" style="50" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9498,355 +9495,355 @@
       <c r="B1" s="38" t="s">
         <v>746</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="52" t="s">
         <v>745</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="52" t="s">
         <v>682</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="52" t="s">
         <v>683</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="52" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="50" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="50" t="s">
         <v>687</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="50" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="51" t="s">
         <v>756</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="55">
         <v>30779</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="50" t="s">
         <v>739</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="53" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="51" t="s">
         <v>742</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="56">
         <v>30779</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="50" t="s">
         <v>739</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="50" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="50" t="s">
         <v>744</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="50" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="58" t="s">
         <v>748</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="54" t="s">
         <v>747</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="55">
         <v>21</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="50" t="s">
         <v>749</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="51" t="s">
         <v>685</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="50" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="51" t="s">
         <v>757</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="50" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="51" t="s">
         <v>758</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="55">
         <v>3306</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="50" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="57" t="s">
         <v>755</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="55">
         <v>9022</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="50" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="57" t="s">
         <v>759</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="55">
         <v>9022</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="50" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="57" t="s">
         <v>761</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="55">
         <v>9022</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="50" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="51" t="s">
         <v>762</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="55">
         <v>3306</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="50" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="57" t="s">
         <v>764</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="50" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="57" t="s">
         <v>766</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>767</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="50" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="51" t="s">
         <v>771</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>768</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="55">
         <v>22</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="50" t="s">
         <v>769</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="50" t="s">
         <v>770</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="50" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="57" t="s">
         <v>772</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="55">
         <v>9022</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="50" t="s">
         <v>684</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="50" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="57" t="s">
         <v>775</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="55">
         <v>9022</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="50" t="s">
         <v>684</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="50" t="s">
         <v>684</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="50" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="57" t="s">
         <v>777</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="55">
         <v>9022</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="50" t="s">
         <v>684</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="50" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="57" t="s">
         <v>784</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="55">
         <v>9022</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="50" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="57" t="s">
         <v>787</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="51" t="s">
         <v>768</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="55">
         <v>22</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="50" t="s">
         <v>786</v>
       </c>
     </row>
@@ -9863,6 +9860,7 @@
     <hyperlink ref="F16" r:id="rId9" xr:uid="{F2917D73-50DB-4A5C-ADC9-53CA374F6659}"/>
     <hyperlink ref="E18" r:id="rId10" xr:uid="{CEE22231-9B6C-4D23-A219-F662D8B125FD}"/>
     <hyperlink ref="E20" r:id="rId11" xr:uid="{9A6C2BE5-8187-4D7A-85F8-CAE962FE6053}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{367E183C-30E3-467A-AAAB-63128302D1EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9878,309 +9876,309 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="46.1796875" style="55" customWidth="1"/>
-    <col min="3" max="3" width="103.6328125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="46.1796875" style="51" customWidth="1"/>
+    <col min="3" max="3" width="103.6328125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="64" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="409.5">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="65" t="s">
         <v>503</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="69" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="409.5">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="65" t="s">
         <v>504</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="69" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>539</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="51" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="51" t="s">
         <v>511</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="51" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="51" t="s">
         <v>536</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="51" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="51" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="51" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="51" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="51" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="51" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="51" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="51" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="51" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="51" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="51" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="51" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="51" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="51" t="s">
         <v>528</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="51" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="51" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="51" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="51" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="51" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="51" t="s">
         <v>529</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="51" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="51" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="116">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="66" t="s">
         <v>730</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="51" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="51" t="s">
         <v>532</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="51" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="51" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="51" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="51" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="51" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="116">
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="66" t="s">
         <v>733</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="51" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="51" t="s">
         <v>533</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="51" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="51" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="51" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="51" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="51" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="29">
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="51" t="s">
         <v>535</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="51" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="67" t="s">
         <v>669</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="51" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="51" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="68" t="s">
         <v>671</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="51" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="51" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="51" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="29">
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="51" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="51" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="159.5">
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="68" t="s">
         <v>736</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="51" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="409.5">
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="51" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="130.5">
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="68" t="s">
         <v>735</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="51" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="391.5">
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="51" t="s">
         <v>737</v>
       </c>
     </row>
@@ -10200,8 +10198,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="46.6328125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="46.6328125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -10213,134 +10211,134 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="50" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="C4" s="54"/>
+      <c r="C4" s="50"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="C5" s="54"/>
+      <c r="C5" s="50"/>
     </row>
     <row r="6" spans="2:3">
-      <c r="C6" s="54"/>
+      <c r="C6" s="50"/>
     </row>
     <row r="7" spans="2:3" ht="23.5">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="60" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="C8" s="66"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="61" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="62" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="C11" s="66"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="61" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="61" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="C14" s="66"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="61" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="C16" s="66"/>
+      <c r="C16" s="61"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="61" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="54"/>
+      <c r="C18" s="50"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="54"/>
+      <c r="C19" s="50"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="54"/>
+      <c r="C20" s="50"/>
     </row>
     <row r="21" spans="3:3" ht="17.5">
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="63" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="66"/>
+      <c r="C22" s="61"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="61" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="66"/>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="61" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="66"/>
+      <c r="C26" s="61"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="61" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="66"/>
+      <c r="C28" s="61"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="61" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="51" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="51" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="61" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="51" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="51" t="s">
         <v>564</v>
       </c>
     </row>
@@ -10362,12 +10360,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="28.6328125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" style="50" customWidth="1"/>
     <col min="3" max="3" width="75.453125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="59" t="s">
         <v>501</v>
       </c>
       <c r="C1" s="40" t="s">
@@ -10375,7 +10373,7 @@
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="50" t="s">
         <v>626</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -10413,7 +10411,7 @@
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="50" t="s">
         <v>627</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -10461,7 +10459,7 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="50" t="s">
         <v>628</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -10539,7 +10537,7 @@
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="50" t="s">
         <v>629</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -10791,183 +10789,183 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="38.90625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="134.81640625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="134.81640625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="59" t="s">
         <v>501</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="59" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="50" t="s">
         <v>631</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="50" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="50" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="50" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="50" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="50" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="50" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="50" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="50" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="50" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="50" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="50" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="50" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="50" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="50" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="50" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="50" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="50" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="50" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="50" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="50" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="50" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="50" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="50" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="50" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="50" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="50" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="50" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="50" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="50" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="50" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="50" t="s">
         <v>660</v>
       </c>
       <c r="D50" t="s">
@@ -10975,7 +10973,7 @@
       </c>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="50" t="s">
         <v>662</v>
       </c>
       <c r="D51" t="s">
@@ -10983,7 +10981,7 @@
       </c>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="50" t="s">
         <v>664</v>
       </c>
       <c r="D52" t="s">
@@ -10991,12 +10989,12 @@
       </c>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="50" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="50" t="s">
         <v>667</v>
       </c>
     </row>
@@ -11015,20 +11013,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="50.7265625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" style="50" customWidth="1"/>
     <col min="3" max="3" width="82.26953125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="52" t="s">
         <v>501</v>
       </c>
       <c r="C1" s="44" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="87">
-      <c r="B2" s="75" t="s">
+    <row r="2" spans="2:3" ht="72.5">
+      <c r="B2" s="70" t="s">
         <v>673</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -11036,7 +11034,7 @@
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="71" t="s">
         <v>675</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -11044,7 +11042,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="290">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="70" t="s">
         <v>707</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -11052,7 +11050,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="246.5">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="72" t="s">
         <v>708</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -11060,7 +11058,7 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="50" t="s">
         <v>712</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -11083,12 +11081,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="44" style="54" customWidth="1"/>
+    <col min="2" max="2" width="44" style="50" customWidth="1"/>
     <col min="3" max="3" width="72.26953125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="59" t="s">
         <v>501</v>
       </c>
       <c r="C1" s="40" t="s">
@@ -11096,7 +11094,7 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="71" t="s">
         <v>691</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -11109,7 +11107,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="71" t="s">
         <v>694</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -11117,16 +11115,16 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="76"/>
+      <c r="B7" s="71"/>
     </row>
     <row r="8" spans="2:3" ht="29">
-      <c r="B8" s="76"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="3" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="71" t="s">
         <v>698</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -11144,7 +11142,7 @@
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="71" t="s">
         <v>706</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -11169,15 +11167,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DFC42C-DB38-4732-81A5-063E6C4E38ED}">
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="54.6328125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="54.6328125" style="66" customWidth="1"/>
     <col min="3" max="3" width="54.6328125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11190,11 +11188,19 @@
       </c>
     </row>
     <row r="2" spans="2:3" ht="25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="66" t="s">
         <v>700</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>701</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="66" t="s">
+        <v>788</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/development-notes.xlsx
+++ b/development-notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Developer\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6EF24-738C-4564-9CE3-5298F3671904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01971E48-937C-4124-A9F7-43BBEFDDF4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{47930D6B-9FD5-4AC4-8FF2-830670DA8EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="821">
   <si>
     <t>fungsi</t>
   </si>
@@ -4048,7 +4048,1485 @@
     <t>Create pod for create kafka-topic</t>
   </si>
   <si>
-    <t>apiVersion: apps/v1
+    <t>Check kafka</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-console-consumer.sh \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --bootstrap-server localhost:9092 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --topic source-jalaauthv2dbauth_users \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --from-beginning \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --timeout-ms 10000</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-topics.sh --bootstrap-server localhost:9092  --delete --topic source-jalaauthv2dbauth_users</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-topics.sh --list --bootstrap-server localhost:9092</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To install </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>kubefwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, follow these steps:</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ Option 1: Download the Binary (Recommended)</t>
+  </si>
+  <si>
+    <t>1. Visit the releases page:</t>
+  </si>
+  <si>
+    <t>👉 https://github.com/txn2/kubefwd/releases</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Download the latest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>kubefwd-windows-amd64.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(usually named something like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>kubefwd-windows-amd64.exe.zip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Extract the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>.zip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file to any folder (e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>C:\kubefwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. (Optional) Rename the file to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>kubefwd.exe</t>
+    </r>
+  </si>
+  <si>
+    <t>🛠 Add to PATH (so you can run it from any folder)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Open Start → search </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Environment Variables"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Environment Variables..."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, find </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Add the path where you extracted </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>kubefwd.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, e.g.:</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Open cat ~/.kube/config in host kubernetes. Example : jalaera.com</t>
+  </si>
+  <si>
+    <t>6. C:\Users\ASUS\.kube\config (Note : make or edit this file, copy value config from step number 5)</t>
+  </si>
+  <si>
+    <t>kubefwd --version</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. Open a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new terminal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (PowerShell or CMD) and test:</t>
+    </r>
+  </si>
+  <si>
+    <t>kubefwd svc -n k8s-api</t>
+  </si>
+  <si>
+    <t>sudo chmod 777 storage/</t>
+  </si>
+  <si>
+    <t>list swap :</t>
+  </si>
+  <si>
+    <t>Remove swap :</t>
+  </si>
+  <si>
+    <t>rm .*swp</t>
+  </si>
+  <si>
+    <t>list :</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>Cara membuat service :</t>
+  </si>
+  <si>
+    <t>1. , vim file.sh</t>
+  </si>
+  <si>
+    <t>2. chmod +x file.sh</t>
+  </si>
+  <si>
+    <t>3. cd /etc/systemd/system/, sudo vim nama_Service.service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. cd /var/log, </t>
+  </si>
+  <si>
+    <t>read sh</t>
+  </si>
+  <si>
+    <t>cd /home/developer/docscript</t>
+  </si>
+  <si>
+    <t>nano file.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create service </t>
+  </si>
+  <si>
+    <t>sudo vim nama_Service.service</t>
+  </si>
+  <si>
+    <t>save and exit :</t>
+  </si>
+  <si>
+    <t>click ESC tulis :w terus ENTER</t>
+  </si>
+  <si>
+    <t>1. Memindahkan semua file atau folder dalam suatu folder ke tempat lain</t>
+  </si>
+  <si>
+    <t>mv /root/lokasifolderanda/* /folder/tujuan/anda/</t>
+  </si>
+  <si>
+    <t>Misalnya anda punya banyak file di folder /home/yupi/Downloads/ dan ingin di pindahkan ke /root/tujuan/, maka command nya adalah sebagai berikut:</t>
+  </si>
+  <si>
+    <t># mv /home/yupi/Downloads/ /root/tujuan/</t>
+  </si>
+  <si>
+    <t>2. Memindahkan file atau folder yang berextensi tertentu</t>
+  </si>
+  <si>
+    <t>mv /root/lokasifolderanda/*.jpg /folder/tujuan/anda/</t>
+  </si>
+  <si>
+    <t>unzip sampleZipFile.zip</t>
+  </si>
+  <si>
+    <t>Rename service</t>
+  </si>
+  <si>
+    <t>sudo mv nama_lama.ext nama_baru.ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Service </t>
+  </si>
+  <si>
+    <t>$ sudo systemctl edit --full nama_service</t>
+  </si>
+  <si>
+    <t>Edit SH</t>
+  </si>
+  <si>
+    <t>$ vim nama_sh.sh</t>
+  </si>
+  <si>
+    <t>$ chmod +x file.sh</t>
+  </si>
+  <si>
+    <t>SAVE SH</t>
+  </si>
+  <si>
+    <t>ESC + SHIFT + Z</t>
+  </si>
+  <si>
+    <t>EXIT SH AND SAVE</t>
+  </si>
+  <si>
+    <t>ctr + shift + z + z</t>
+  </si>
+  <si>
+    <t># Control whether service loads on boot</t>
+  </si>
+  <si>
+    <t># Manual start and stop</t>
+  </si>
+  <si>
+    <t>sudo systemctl start my_service</t>
+  </si>
+  <si>
+    <t>sudo systemctl stop my_service</t>
+  </si>
+  <si>
+    <t># Restarting/reloading</t>
+  </si>
+  <si>
+    <t>sudo systemctl daemon-reload # Run if .service file has changed</t>
+  </si>
+  <si>
+    <t>sudo systemctl restart my_restart</t>
+  </si>
+  <si>
+    <t>sudo service check_file_cashless restart</t>
+  </si>
+  <si>
+    <t># Or if working with a user service add --user flag</t>
+  </si>
+  <si>
+    <t>systemctl --user restart my_user_service</t>
+  </si>
+  <si>
+    <t># See if running, uptime, view latest logs</t>
+  </si>
+  <si>
+    <t>sudo systemctl status</t>
+  </si>
+  <si>
+    <t>sudo systemctl status my_service</t>
+  </si>
+  <si>
+    <t># Or for a user service</t>
+  </si>
+  <si>
+    <t>systemctl --user status my_service</t>
+  </si>
+  <si>
+    <t># See all systemd logs</t>
+  </si>
+  <si>
+    <t>sudo journalctl</t>
+  </si>
+  <si>
+    <t># Tail logs</t>
+  </si>
+  <si>
+    <t>sudo journalctl -f</t>
+  </si>
+  <si>
+    <t># Show logs for specific service</t>
+  </si>
+  <si>
+    <t>sudo journalctl -u my_daemon</t>
+  </si>
+  <si>
+    <t># For user service</t>
+  </si>
+  <si>
+    <t>journalctl --user-unit my_user_daemon</t>
+  </si>
+  <si>
+    <t>CEK LOG</t>
+  </si>
+  <si>
+    <t>/var/log/cashless$ nano import_action.log</t>
+  </si>
+  <si>
+    <t>Create Zip</t>
+  </si>
+  <si>
+    <t>Php artisan</t>
+  </si>
+  <si>
+    <t>Make Linux Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move Folder / Directory </t>
+  </si>
+  <si>
+    <t>Get-ChildItem -Recurse -Force -Include "__pycache__" | Remove-Item -Recurse -Force</t>
+  </si>
+  <si>
+    <t>Remove cache python in windows</t>
+  </si>
+  <si>
+    <t>sudo apt install python3 python3-pip</t>
+  </si>
+  <si>
+    <t>python3 --version</t>
+  </si>
+  <si>
+    <t>pip --version</t>
+  </si>
+  <si>
+    <t># 1. Go to project folder</t>
+  </si>
+  <si>
+    <t>cd your_project_folder</t>
+  </si>
+  <si>
+    <t># 2. Create virtual env</t>
+  </si>
+  <si>
+    <t># 3. Activate it</t>
+  </si>
+  <si>
+    <t>source venv/bin/activate   # Linux/macOS</t>
+  </si>
+  <si>
+    <t>venv\Scripts\activate      # Windows</t>
+  </si>
+  <si>
+    <t>You'll know it's activated when your terminal looks like:</t>
+  </si>
+  <si>
+    <t>(venv) user@machine:~/your_project$</t>
+  </si>
+  <si>
+    <t>pip install "pydantic[email]"</t>
+  </si>
+  <si>
+    <t>delete __pycache__</t>
+  </si>
+  <si>
+    <t>find . -type d -name "__pycache__" -exec rm -r {} +</t>
+  </si>
+  <si>
+    <t># 4. Install dependencies</t>
+  </si>
+  <si>
+    <t># 5. Run the server</t>
+  </si>
+  <si>
+    <t>uvicorn app.main:app --host 0.0.0.0 --port 4001 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --ssl-keyfile=crt/server.key \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --ssl-certfile=crt/server.crt \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --reload</t>
+  </si>
+  <si>
+    <t>Use a production-grade WSGI/ASGI server:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gunicorn app.main:app \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    --bind 0.0.0.0:8000 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    --workers 4 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    --worker-class uvicorn.workers.UvicornWorker</t>
+  </si>
+  <si>
+    <t># kill</t>
+  </si>
+  <si>
+    <t>kill -9 $(lsof -t -i:3000)</t>
+  </si>
+  <si>
+    <t>http://localhost:3000</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Swagger UI (interactive API explorer)</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/docs</t>
+  </si>
+  <si>
+    <t>ReDoc (API documentation)</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/redoc</t>
+  </si>
+  <si>
+    <t>With docker-compose</t>
+  </si>
+  <si>
+    <t>docker-compose up --build</t>
+  </si>
+  <si>
+    <t>{"name":"source-jalaauthv2","config":{"connector.class":"io.confluent.connect.jdbc.JdbcSourceConnector","timestamp.column.name":"updated_at","dialect.name":"MySqlDatabaseDialect","incrementing.column.name":"id","connection.password":"dbjalaauth2","validate.non.null":"false","tasks.max":"1","connection.attempts":"10","table.types":"TABLE","table.whitelist":"dbjalaauth2.dbauth_users,dbjalaauth2.dbauth_oauth_clients","mode":"timestamp+incrementing","topic.prefix":"source-jalaauthv2","connection.max.retries":"100","connection.user":"dbjalaauth2","poll.interval.ms":"2000","value.converter.schemas.enable":"true","name":"source-jalaauthv2","numeric.mapping":"best_fit","connection.url":"jdbc:mysql://jalaauth2-db-0.jalaauth2-db.k8s-rbac.svc.cluster.local:3306/dbjalaauth2","value.converter":"org.apache.kafka.connect.json.JsonConverter","key.converter":"org.apache.kafka.connect.storage.StringConverter","pk.mode":"record_key","pk.fields":"id"},"tasks":[{"connector":"source-jalaauthv2","task":0}],"type":"source"}</t>
+  </si>
+  <si>
+    <t>Example Source</t>
+  </si>
+  <si>
+    <t>{"name":"sink-dbjalaauth2-to-dbelibrary","config":{"connector.class":"io.confluent.connect.jdbc.JdbcSinkConnector","table.name.format":"dbjalaauth2_auth_users","connection.password":"test1234","validate.non.null":"false","tasks.max":"1","topics":"source-jalaauthv2dbauth_users","delete.enabled":"false","auto.evolve":"true","connection.user":"user_dbelibrary","value.converter.schemas.enable":"true","name":"sink-dbjalaauth2-to-dbelibrary","auto.create":"true","connection.url":"jdbc:postgresql://elibrary-db-0.elibrary-db-service.k8s-api.svc.cluster.local:5432/dbelibrary","value.converter":"org.apache.kafka.connect.json.JsonConverter","insert.mode":"upsert","key.converter":"org.apache.kafka.connect.storage.StringConverter","pk.mode":"record_value","pk.fields":"id"},"tasks":[{"connector":"sink-dbjalaauth2-to-dbelibrary","task":0}],"type":"sink"}</t>
+  </si>
+  <si>
+    <t>Example Sink</t>
+  </si>
+  <si>
+    <t>"C:\Program Files\pgAdmin 4\runtime\psql.exe" "host=localho
+st port=5432 dbname=dbelibrary user=postgres sslmode=prefer connect_timeout=10" 2&gt;&gt;&amp;1psql (17.
+4) -f "D:\IT Developer\Microservices\ms-elibrary-backend\elibrary-article-backend\db\dbelibrar
+y.sql"</t>
+  </si>
+  <si>
+    <t>Import in windows</t>
+  </si>
+  <si>
+    <t>\i 'D:/IT Developer/Microservices/ms-elibrary-backend/elibrary-article-backend/db/dbelibrary.sql'</t>
+  </si>
+  <si>
+    <t>Import inside psql cli</t>
+  </si>
+  <si>
+    <t>https://docker-registry.jalaniagaelok.web.id/v2/_catalog</t>
+  </si>
+  <si>
+    <t>Link docker Registry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentication </t>
+  </si>
+  <si>
+    <t>{"auths":{"docker-registry.jalaniagaelok.web.id":{"username":"atoets","password":"Ty2s10o3","auth":"YXRvZXRzOlR5MnMxMG8z"}}}</t>
+  </si>
+  <si>
+    <t>Url / Commands / Tutorials</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Pasphrase</t>
+  </si>
+  <si>
+    <t>mDp@3awq</t>
+  </si>
+  <si>
+    <t>devl</t>
+  </si>
+  <si>
+    <t>Ty2s10o3</t>
+  </si>
+  <si>
+    <t>atoets</t>
+  </si>
+  <si>
+    <t>Tyas1003</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>df -h /mnt</t>
+  </si>
+  <si>
+    <t>Check folder size</t>
+  </si>
+  <si>
+    <t>du -sh /var/lib/postgresql/data</t>
+  </si>
+  <si>
+    <t>KUBE_EDITOR="nano" kubectl edit storageclass nfs-client</t>
+  </si>
+  <si>
+    <t>Edit NFS</t>
+  </si>
+  <si>
+    <t>kubectl patch pvc elibrary-db-pvc \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -n &lt;namespace&gt; \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -p '{"spec": {"resources": {"requests": {"storage": "20Gi"}}}}'</t>
+  </si>
+  <si>
+    <t>Patch PVC Storage Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add allowVolumeExpansion: true
+</t>
+  </si>
+  <si>
+    <t>Disable error Iframe.js adminLte</t>
+  </si>
+  <si>
+    <t>localStorage.setItem('AdminLTE:IFrame:Options',JSON.stringify({autoIframeMode:false,autoItemActive:false}))</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>nginx.ingress.kubernetes.io/auth-url : https://jalaera.com/services/account/api/user</t>
+  </si>
+  <si>
+    <t>nginx.ingress.kubernetes.io/server-snippet : set $auth_status ""; set $auth_header "";</t>
+  </si>
+  <si>
+    <t>nginx.ingress.kubernetes.io/auth-signin : https://jalaera.com/services/account/login</t>
+  </si>
+  <si>
+    <t>NGINX Ingress Auth Anotations</t>
+  </si>
+  <si>
+    <t>Get deadlock list</t>
+  </si>
+  <si>
+    <t>Kill deadlock list</t>
+  </si>
+  <si>
+    <t>SELECT pg_terminate_backend(blocking_locks.pid)
+FROM pg_locks blocked_locks
+JOIN pg_stat_activity blocked ON blocked_locks.pid = blocked.pid
+JOIN pg_locks blocking_locks
+  ON blocked_locks.locktype = blocking_locks.locktype
+  AND blocked_locks.database IS NOT DISTINCT FROM blocking_locks.database
+  AND blocked_locks.relation IS NOT DISTINCT FROM blocking_locks.relation
+  AND blocked_locks.page IS NOT DISTINCT FROM blocking_locks.page
+  AND blocked_locks.tuple IS NOT DISTINCT FROM blocking_locks.tuple
+  AND blocked_locks.virtualxid IS NOT DISTINCT FROM blocking_locks.virtualxid
+  AND blocked_locks.transactionid IS NOT DISTINCT FROM blocking_locks.transactionid
+  AND blocked_locks.classid IS NOT DISTINCT FROM blocking_locks.classid
+  AND blocked_locks.objid IS NOT DISTINCT FROM blocking_locks.objid
+  AND blocked_locks.objsubid IS NOT DISTINCT FROM blocking_locks.objsubid
+  AND blocked_locks.pid != blocking_locks.pid
+JOIN pg_stat_activity blocking ON blocking_locks.pid = blocking.pid
+WHERE blocked_locks.granted = false;</t>
+  </si>
+  <si>
+    <t>SELECT
+  blocked.pid     AS blocked_pid,
+  blocked.query   AS blocked_query,
+  blocking.pid    AS blocking_pid,
+  blocking.query  AS blocking_query
+FROM pg_locks blocked_locks
+JOIN pg_stat_activity blocked ON blocked_locks.pid = blocked.pid
+JOIN pg_locks blocking_locks
+  ON blocked_locks.locktype = blocking_locks.locktype
+  AND blocked_locks.database IS NOT DISTINCT FROM blocking_locks.database
+  AND blocked_locks.relation IS NOT DISTINCT FROM blocking_locks.relation
+  AND blocked_locks.page IS NOT DISTINCT FROM blocking_locks.page
+  AND blocked_locks.tuple IS NOT DISTINCT FROM blocking_locks.tuple
+  AND blocked_locks.virtualxid IS NOT DISTINCT FROM blocking_locks.virtualxid
+  AND blocked_locks.transactionid IS NOT DISTINCT FROM blocking_locks.transactionid
+  AND blocked_locks.classid IS NOT DISTINCT FROM blocking_locks.classid
+  AND blocked_locks.objid IS NOT DISTINCT FROM blocking_locks.objid
+  AND blocked_locks.objsubid IS NOT DISTINCT FROM blocking_locks.objsubid
+  AND blocked_locks.pid != blocking_locks.pid
+JOIN pg_stat_activity blocking ON blocking_locks.pid = blocking.pid;</t>
+  </si>
+  <si>
+    <t>REINDEX INDEX notifications_pkey;</t>
+  </si>
+  <si>
+    <t>Reindex corrupt indexed</t>
+  </si>
+  <si>
+    <t>kubectl apply -n k8s-api-elibrary -f - &lt;&lt;EOF
+apiVersion: v1
+kind: Secret
+metadata:
+  name: k8s-api-elibrary-sa-token
+  namespace: k8s-api-elibrary
+  annotations:
+    kubernetes.io/service-account.name: k8s-api-elibrary-sa
+type: kubernetes.io/service-account-token
+EOF</t>
+  </si>
+  <si>
+    <t>Add domain in jenkins credentials</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">under the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stores scoped to Jenkins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> section, chose in dropdown global and select add domain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create token github for deployment and save in jenkins credential and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>copy id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gitCred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jenkinsfile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">get token first, and copy token and save in jenkins, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">copy id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">secret jenkins </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for k8sCredential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jenkinsfile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crt namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for deployment from jenkins to kubernetes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl create rolebinding k8s-api-elibrary-admin \
+  --clusterrole=admin \
+  --serviceaccount=k8s-api-elibrary:k8s-api-elibrary-sa \
+  -n k8s-api-elibrary
+</t>
+  </si>
+  <si>
+    <t>Add Role Admin for Service Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl create serviceaccount cluster-admin-sa -n kube-system
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl create clusterrolebinding cluster-admin-sa-binding \
+  --clusterrole=cluster-admin \
+  --serviceaccount=kube-system:cluster-admin-sa
+</t>
+  </si>
+  <si>
+    <t>Create Role For Admin All Namespace</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get Service Account Token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">For Create Credentials Jenkins And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Copy ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">secret jenkins </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for k8sCredential </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jenkinsfile</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Service Account For All Namespace</t>
+  </si>
+  <si>
+    <t>kubectl apply -n kube-system -f - &lt;&lt;EOF
+apiVersion: v1
+kind: Secret
+metadata:
+  name: cluster-admin-sa-token
+  namespace: kube-system
+  annotations:
+    kubernetes.io/service-account.name: cluster-admin-sa
+type: kubernetes.io/service-account-token
+EOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl get secret k8s-api-elibrary-sa-token -n k8s-api-elibrary -o jsonpath='{.data.token}' | base64 -d | awk -F'&gt;' '{print $1}'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl get secret cluster-admin-sa-token \
+  -n kube-system \
+  -o jsonpath='{.data.token}' | base64 -d | awk -F'&gt;' '{print $1}'
+</t>
+  </si>
+  <si>
+    <t>Create token permanent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create config </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connect-offsets</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">kafka-topics \
+  --bootstrap-server kafka-0.kafka-headless.k8s-kafka.svc.cluster.local:9092 \
+  --create \
+  --topic connect-offsets \
+  --partitions 25 \
+  --replication-factor 1 \
+  --config cleanup.policy=compact
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kafka-topics \
+  --bootstrap-server kafka-0.kafka-headless.k8s-kafka.svc.cluster.local:9092 \
+  --create \
+  --topic connect-status \
+  --partitions 5 \
+  --replication-factor 1 \
+  --config cleanup.policy=compact
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create config </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connect-status</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -X POST http://localhost:8083/connectors \
+  -H "Content-Type: application/json" \
+  -d '{
+    "name": "source-jalaauthv2",
+    "config": {
+      "connector.class": "io.confluent.connect.jdbc.JdbcSourceConnector",
+      "timestamp.column.name": "updated_at",
+      "dialect.name": "MySqlDatabaseDialect",
+      "incrementing.column.name": "id",
+      "connection.password": "dbjalaauth2",
+      "validate.non.null": "false",
+      "tasks.max": "1",
+      "connection.attempts": "10",
+      "table.types": "TABLE",
+      "table.whitelist": "dbjalaauth2.dbauth_users,dbjalaauth2.dbauth_oauth_clients",
+      "mode": "timestamp+incrementing",
+      "topic.prefix": "source-jalaauthv2",
+      "connection.max.retries": "100",
+      "connection.user": "dbjalaauth2",
+      "poll.interval.ms": "2000",
+      "value.converter.schemas.enable": "true",
+      "name": "source-jalaauthv2",
+      "numeric.mapping": "best_fit",
+      "connection.url": "jdbc:mysql://jalaauth2-db-0.jalaauth2-db.k8s-rbac.svc.cluster.local:3306/dbjalaauth2",
+      "value.converter": "org.apache.kafka.connect.json.JsonConverter",
+      "key.converter": "org.apache.kafka.connect.storage.StringConverter",
+      "pk.mode": "record_key",
+      "pk.fields": "id"
+    }
+  }'
+</t>
+  </si>
+  <si>
+    <t>Sink Connector</t>
+  </si>
+  <si>
+    <t>Source Connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -X POST http://localhost:8083/connectors \
+  -H "Content-Type: application/json" \
+  -d '{
+    "name": "sink-dbjalaauth2-to-dbelibrary",
+    "config": {
+      "connector.class": "io.confluent.connect.jdbc.JdbcSinkConnector",
+      "table.name.format": "dbjalaauth2_auth_users",
+      "connection.password": "test1234",
+      "validate.non.null": "false",
+      "tasks.max": "1",
+      "topics": "source-jalaauthv2dbauth_users",
+      "delete.enabled": "false",
+      "auto.evolve": "true",
+      "connection.user": "user_dbelibrary",
+      "value.converter.schemas.enable": "true",
+      "name": "sink-dbjalaauth2-to-dbelibrary",
+      "auto.create": "true",
+      "connection.url": "jdbc:postgresql://elibrary-db-0.elibrary-db-service.k8s-api-elibrary.svc.cluster.local:5432/dbelibrary",
+      "value.converter": "org.apache.kafka.connect.json.JsonConverter",
+      "insert.mode": "upsert",
+      "key.converter": "org.apache.kafka.connect.storage.StringConverter",
+      "pk.mode": "record_value",
+      "pk.fields": "id"
+    }
+  }'
+</t>
+  </si>
+  <si>
+    <t>sofwadev@123sofwadev@123</t>
+  </si>
+  <si>
+    <t>sofwa</t>
+  </si>
+  <si>
+    <t>Host / Apps</t>
+  </si>
+  <si>
+    <t>sofwasofwa@123</t>
+  </si>
+  <si>
+    <t>Portainer (jalaera.com, dev-jalaera.com)</t>
+  </si>
+  <si>
+    <t>App Jenkins</t>
+  </si>
+  <si>
+    <t>shofwa_dev</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.26.11.9 </t>
+  </si>
+  <si>
+    <t>jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>usrd</t>
+  </si>
+  <si>
+    <t>sA!M_62p$@</t>
+  </si>
+  <si>
+    <t>PPK</t>
+  </si>
+  <si>
+    <t>oprcontrold.ppk</t>
+  </si>
+  <si>
+    <t>10.26.11.172</t>
+  </si>
+  <si>
+    <t>Seiko@quartz3</t>
+  </si>
+  <si>
+    <t>ticketing.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>Portainer (jalanet.id)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Database </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oprcontrol.jalaniagaelok.web.id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User MySQL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oprcontrol.jalaniagaelok.web.id</t>
+    </r>
+  </si>
+  <si>
+    <t>jenkins.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>10.26.11.28</t>
+  </si>
+  <si>
+    <t>jalaera.com</t>
+  </si>
+  <si>
+    <t>User MySQL Production</t>
+  </si>
+  <si>
+    <t>10.26.11.7</t>
+  </si>
+  <si>
+    <t>courierpfm.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>10.26.11.112</t>
+  </si>
+  <si>
+    <t>jpar.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>10.26.11.111</t>
+  </si>
+  <si>
+    <t>192.168.132.82</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>monyetloe</t>
+  </si>
+  <si>
+    <t>Server Developer 82</t>
+  </si>
+  <si>
+    <t>cors.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>ub-appd.ppk</t>
+  </si>
+  <si>
+    <t>corsd.ppk</t>
+  </si>
+  <si>
+    <t>dsa.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>dsa.ppk</t>
+  </si>
+  <si>
+    <t>elibrary.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>elibrary_v2.ppk</t>
+  </si>
+  <si>
+    <t>stagingd.ppk</t>
+  </si>
+  <si>
+    <t>jenkinsd.ppk</t>
+  </si>
+  <si>
+    <t>jpard1.ppk</t>
+  </si>
+  <si>
+    <t>courierpfmd1.ppk</t>
+  </si>
+  <si>
+    <t>ticketingd.ppk</t>
+  </si>
+  <si>
+    <t>yesplus.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>yesplus.ppk</t>
+  </si>
+  <si>
+    <t>authorize_oprctrlweb.ppk</t>
+  </si>
+  <si>
+    <t>test.jalaniagaelok.web.id</t>
+  </si>
+  <si>
+    <t>Contoh komposisi vue di github ms-hris-web branch developer</t>
+  </si>
+  <si>
+    <t>package.json, vue.config.js, main.js, app.js, app.scss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apiVersion: apps/v1
 kind: Deployment
 metadata:
   name: kafka-connect
@@ -4069,6 +5547,14 @@
         - name: plugin-jars
           persistentVolumeClaim:
             claimName: kafka-connect-plugins-pvc
+        - name: tz-config
+          hostPath:
+            path: /usr/share/zoneinfo/Asia/Jakarta
+            type: File
+        - name: localtime
+          hostPath:
+            path: /etc/localtime
+            type: File
       initContainers:
       - name: download-connectors
         image: alpine:3.19
@@ -4119,7 +5605,13 @@
           volumeMounts:
             - name: plugin-jars
               mountPath: /usr/share/confluent-hub-components/plugins
+            - name: tz-config
+              mountPath: /etc/localtime
+            - name: localtime
+              mountPath: /usr/share/zoneinfo/Asia/Jakarta
           env:
+            - name: TZ
+              value: "Asia/Jakarta"
             - name: CONNECT_BOOTSTRAP_SERVERS
               value: "kafka-0.kafka-headless.k8s-kafka.svc.cluster.local:9092"
             - name: CONNECT_REST_PORT
@@ -4172,7 +5664,8 @@
     - ReadWriteOnce
   resources:
     requests:
-      storage: 1Gi</t>
+      storage: 1Gi
+</t>
   </si>
   <si>
     <t xml:space="preserve">apiVersion: v1
@@ -4186,7 +5679,9 @@
   name: kafka-config
   namespace: k8s-kafka
 data:
+  TZ: "Asia/Jakarta"
   ALLOW_PLAINTEXT_LISTENER: "yes"
+  KAFKA_HEAP_OPTS: "-Duser.timezone=Asia/Jakarta"
   KAFKA_CFG_PROCESS_ROLES: "broker,controller"
   KAFKA_CFG_CONTROLLER_LISTENER_NAMES: "CONTROLLER"
   KAFKA_CFG_LISTENERS: "PLAINTEXT://:9092,CONTROLLER://:9093"
@@ -4256,1482 +5751,97 @@
 </t>
   </si>
   <si>
-    <t>Check kafka</t>
-  </si>
-  <si>
-    <t>/opt/bitnami/kafka/bin/kafka-console-consumer.sh \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  --bootstrap-server localhost:9092 \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  --topic source-jalaauthv2dbauth_users \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  --from-beginning \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  --timeout-ms 10000</t>
-  </si>
-  <si>
-    <t>/opt/bitnami/kafka/bin/kafka-topics.sh --bootstrap-server localhost:9092  --delete --topic source-jalaauthv2dbauth_users</t>
-  </si>
-  <si>
-    <t>/opt/bitnami/kafka/bin/kafka-topics.sh --list --bootstrap-server localhost:9092</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To install </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>kubefwd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Windows 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, follow these steps:</t>
-    </r>
-  </si>
-  <si>
-    <t>✅ Option 1: Download the Binary (Recommended)</t>
-  </si>
-  <si>
-    <t>1. Visit the releases page:</t>
-  </si>
-  <si>
-    <t>👉 https://github.com/txn2/kubefwd/releases</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Download the latest </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>kubefwd-windows-amd64.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(usually named something like </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>kubefwd-windows-amd64.exe.zip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Extract the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>.zip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> file to any folder (e.g. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>C:\kubefwd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. (Optional) Rename the file to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>kubefwd.exe</t>
-    </r>
-  </si>
-  <si>
-    <t>🛠 Add to PATH (so you can run it from any folder)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Open Start → search </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Environment Variables"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Environment Variables..."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Under </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>System variables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User variables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, find </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>Path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → Add the path where you extracted </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>kubefwd.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, e.g.:</t>
-    </r>
-  </si>
-  <si>
-    <t>5. Open cat ~/.kube/config in host kubernetes. Example : jalaera.com</t>
-  </si>
-  <si>
-    <t>6. C:\Users\ASUS\.kube\config (Note : make or edit this file, copy value config from step number 5)</t>
-  </si>
-  <si>
-    <t>kubefwd --version</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. Open a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>new terminal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (PowerShell or CMD) and test:</t>
-    </r>
-  </si>
-  <si>
-    <t>kubefwd svc -n k8s-api</t>
-  </si>
-  <si>
-    <t>sudo chmod 777 storage/</t>
-  </si>
-  <si>
-    <t>list swap :</t>
-  </si>
-  <si>
-    <t>Remove swap :</t>
-  </si>
-  <si>
-    <t>rm .*swp</t>
-  </si>
-  <si>
-    <t>list :</t>
-  </si>
-  <si>
-    <t>ls</t>
-  </si>
-  <si>
-    <t>Cara membuat service :</t>
-  </si>
-  <si>
-    <t>1. , vim file.sh</t>
-  </si>
-  <si>
-    <t>2. chmod +x file.sh</t>
-  </si>
-  <si>
-    <t>3. cd /etc/systemd/system/, sudo vim nama_Service.service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. cd /var/log, </t>
-  </si>
-  <si>
-    <t>read sh</t>
-  </si>
-  <si>
-    <t>cd /home/developer/docscript</t>
-  </si>
-  <si>
-    <t>nano file.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create service </t>
-  </si>
-  <si>
-    <t>sudo vim nama_Service.service</t>
-  </si>
-  <si>
-    <t>save and exit :</t>
-  </si>
-  <si>
-    <t>click ESC tulis :w terus ENTER</t>
-  </si>
-  <si>
-    <t>1. Memindahkan semua file atau folder dalam suatu folder ke tempat lain</t>
-  </si>
-  <si>
-    <t>mv /root/lokasifolderanda/* /folder/tujuan/anda/</t>
-  </si>
-  <si>
-    <t>Misalnya anda punya banyak file di folder /home/yupi/Downloads/ dan ingin di pindahkan ke /root/tujuan/, maka command nya adalah sebagai berikut:</t>
-  </si>
-  <si>
-    <t># mv /home/yupi/Downloads/ /root/tujuan/</t>
-  </si>
-  <si>
-    <t>2. Memindahkan file atau folder yang berextensi tertentu</t>
-  </si>
-  <si>
-    <t>mv /root/lokasifolderanda/*.jpg /folder/tujuan/anda/</t>
-  </si>
-  <si>
-    <t>unzip sampleZipFile.zip</t>
-  </si>
-  <si>
-    <t>Rename service</t>
-  </si>
-  <si>
-    <t>sudo mv nama_lama.ext nama_baru.ext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Service </t>
-  </si>
-  <si>
-    <t>$ sudo systemctl edit --full nama_service</t>
-  </si>
-  <si>
-    <t>Edit SH</t>
-  </si>
-  <si>
-    <t>$ vim nama_sh.sh</t>
-  </si>
-  <si>
-    <t>$ chmod +x file.sh</t>
-  </si>
-  <si>
-    <t>SAVE SH</t>
-  </si>
-  <si>
-    <t>ESC + SHIFT + Z</t>
-  </si>
-  <si>
-    <t>EXIT SH AND SAVE</t>
-  </si>
-  <si>
-    <t>ctr + shift + z + z</t>
-  </si>
-  <si>
-    <t># Control whether service loads on boot</t>
-  </si>
-  <si>
-    <t># Manual start and stop</t>
-  </si>
-  <si>
-    <t>sudo systemctl start my_service</t>
-  </si>
-  <si>
-    <t>sudo systemctl stop my_service</t>
-  </si>
-  <si>
-    <t># Restarting/reloading</t>
-  </si>
-  <si>
-    <t>sudo systemctl daemon-reload # Run if .service file has changed</t>
-  </si>
-  <si>
-    <t>sudo systemctl restart my_restart</t>
-  </si>
-  <si>
-    <t>sudo service check_file_cashless restart</t>
-  </si>
-  <si>
-    <t># Or if working with a user service add --user flag</t>
-  </si>
-  <si>
-    <t>systemctl --user restart my_user_service</t>
-  </si>
-  <si>
-    <t># See if running, uptime, view latest logs</t>
-  </si>
-  <si>
-    <t>sudo systemctl status</t>
-  </si>
-  <si>
-    <t>sudo systemctl status my_service</t>
-  </si>
-  <si>
-    <t># Or for a user service</t>
-  </si>
-  <si>
-    <t>systemctl --user status my_service</t>
-  </si>
-  <si>
-    <t># See all systemd logs</t>
-  </si>
-  <si>
-    <t>sudo journalctl</t>
-  </si>
-  <si>
-    <t># Tail logs</t>
-  </si>
-  <si>
-    <t>sudo journalctl -f</t>
-  </si>
-  <si>
-    <t># Show logs for specific service</t>
-  </si>
-  <si>
-    <t>sudo journalctl -u my_daemon</t>
-  </si>
-  <si>
-    <t># For user service</t>
-  </si>
-  <si>
-    <t>journalctl --user-unit my_user_daemon</t>
-  </si>
-  <si>
-    <t>CEK LOG</t>
-  </si>
-  <si>
-    <t>/var/log/cashless$ nano import_action.log</t>
-  </si>
-  <si>
-    <t>Create Zip</t>
-  </si>
-  <si>
-    <t>Php artisan</t>
-  </si>
-  <si>
-    <t>Make Linux Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move Folder / Directory </t>
-  </si>
-  <si>
-    <t>Get-ChildItem -Recurse -Force -Include "__pycache__" | Remove-Item -Recurse -Force</t>
-  </si>
-  <si>
-    <t>Remove cache python in windows</t>
-  </si>
-  <si>
-    <t>sudo apt install python3 python3-pip</t>
-  </si>
-  <si>
-    <t>python3 --version</t>
-  </si>
-  <si>
-    <t>pip --version</t>
-  </si>
-  <si>
-    <t># 1. Go to project folder</t>
-  </si>
-  <si>
-    <t>cd your_project_folder</t>
-  </si>
-  <si>
-    <t># 2. Create virtual env</t>
-  </si>
-  <si>
-    <t># 3. Activate it</t>
-  </si>
-  <si>
-    <t>source venv/bin/activate   # Linux/macOS</t>
-  </si>
-  <si>
-    <t>venv\Scripts\activate      # Windows</t>
-  </si>
-  <si>
-    <t>You'll know it's activated when your terminal looks like:</t>
-  </si>
-  <si>
-    <t>(venv) user@machine:~/your_project$</t>
-  </si>
-  <si>
-    <t>pip install "pydantic[email]"</t>
-  </si>
-  <si>
-    <t>delete __pycache__</t>
-  </si>
-  <si>
-    <t>find . -type d -name "__pycache__" -exec rm -r {} +</t>
-  </si>
-  <si>
-    <t># 4. Install dependencies</t>
-  </si>
-  <si>
-    <t># 5. Run the server</t>
-  </si>
-  <si>
-    <t>uvicorn app.main:app --host 0.0.0.0 --port 4001 \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  --ssl-keyfile=crt/server.key \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  --ssl-certfile=crt/server.crt \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  --reload</t>
-  </si>
-  <si>
-    <t>Use a production-grade WSGI/ASGI server:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    gunicorn app.main:app \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    --bind 0.0.0.0:8000 \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    --workers 4 \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    --worker-class uvicorn.workers.UvicornWorker</t>
-  </si>
-  <si>
-    <t># kill</t>
-  </si>
-  <si>
-    <t>kill -9 $(lsof -t -i:3000)</t>
-  </si>
-  <si>
-    <t>http://localhost:3000</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Swagger UI (interactive API explorer)</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/docs</t>
-  </si>
-  <si>
-    <t>ReDoc (API documentation)</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/redoc</t>
-  </si>
-  <si>
-    <t>With docker-compose</t>
-  </si>
-  <si>
-    <t>docker-compose up --build</t>
-  </si>
-  <si>
-    <t>{"name":"source-jalaauthv2","config":{"connector.class":"io.confluent.connect.jdbc.JdbcSourceConnector","timestamp.column.name":"updated_at","dialect.name":"MySqlDatabaseDialect","incrementing.column.name":"id","connection.password":"dbjalaauth2","validate.non.null":"false","tasks.max":"1","connection.attempts":"10","table.types":"TABLE","table.whitelist":"dbjalaauth2.dbauth_users,dbjalaauth2.dbauth_oauth_clients","mode":"timestamp+incrementing","topic.prefix":"source-jalaauthv2","connection.max.retries":"100","connection.user":"dbjalaauth2","poll.interval.ms":"2000","value.converter.schemas.enable":"true","name":"source-jalaauthv2","numeric.mapping":"best_fit","connection.url":"jdbc:mysql://jalaauth2-db-0.jalaauth2-db.k8s-rbac.svc.cluster.local:3306/dbjalaauth2","value.converter":"org.apache.kafka.connect.json.JsonConverter","key.converter":"org.apache.kafka.connect.storage.StringConverter","pk.mode":"record_key","pk.fields":"id"},"tasks":[{"connector":"source-jalaauthv2","task":0}],"type":"source"}</t>
-  </si>
-  <si>
-    <t>Example Source</t>
-  </si>
-  <si>
-    <t>{"name":"sink-dbjalaauth2-to-dbelibrary","config":{"connector.class":"io.confluent.connect.jdbc.JdbcSinkConnector","table.name.format":"dbjalaauth2_auth_users","connection.password":"test1234","validate.non.null":"false","tasks.max":"1","topics":"source-jalaauthv2dbauth_users","delete.enabled":"false","auto.evolve":"true","connection.user":"user_dbelibrary","value.converter.schemas.enable":"true","name":"sink-dbjalaauth2-to-dbelibrary","auto.create":"true","connection.url":"jdbc:postgresql://elibrary-db-0.elibrary-db-service.k8s-api.svc.cluster.local:5432/dbelibrary","value.converter":"org.apache.kafka.connect.json.JsonConverter","insert.mode":"upsert","key.converter":"org.apache.kafka.connect.storage.StringConverter","pk.mode":"record_value","pk.fields":"id"},"tasks":[{"connector":"sink-dbjalaauth2-to-dbelibrary","task":0}],"type":"sink"}</t>
-  </si>
-  <si>
-    <t>Example Sink</t>
-  </si>
-  <si>
-    <t>"C:\Program Files\pgAdmin 4\runtime\psql.exe" "host=localho
-st port=5432 dbname=dbelibrary user=postgres sslmode=prefer connect_timeout=10" 2&gt;&gt;&amp;1psql (17.
-4) -f "D:\IT Developer\Microservices\ms-elibrary-backend\elibrary-article-backend\db\dbelibrar
-y.sql"</t>
-  </si>
-  <si>
-    <t>Import in windows</t>
-  </si>
-  <si>
-    <t>\i 'D:/IT Developer/Microservices/ms-elibrary-backend/elibrary-article-backend/db/dbelibrary.sql'</t>
-  </si>
-  <si>
-    <t>Import inside psql cli</t>
-  </si>
-  <si>
-    <t>https://docker-registry.jalaniagaelok.web.id/v2/_catalog</t>
-  </si>
-  <si>
-    <t>Link docker Registry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentication </t>
-  </si>
-  <si>
-    <t>{"auths":{"docker-registry.jalaniagaelok.web.id":{"username":"atoets","password":"Ty2s10o3","auth":"YXRvZXRzOlR5MnMxMG8z"}}}</t>
-  </si>
-  <si>
-    <t>Url / Commands / Tutorials</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Pasphrase</t>
-  </si>
-  <si>
-    <t>mDp@3awq</t>
-  </si>
-  <si>
-    <t>devl</t>
-  </si>
-  <si>
-    <t>Ty2s10o3</t>
-  </si>
-  <si>
-    <t>atoets</t>
-  </si>
-  <si>
-    <t>Tyas1003</t>
-  </si>
-  <si>
-    <t>Commands</t>
-  </si>
-  <si>
-    <t>df -h /mnt</t>
-  </si>
-  <si>
-    <t>Check folder size</t>
-  </si>
-  <si>
-    <t>du -sh /var/lib/postgresql/data</t>
-  </si>
-  <si>
-    <t>KUBE_EDITOR="nano" kubectl edit storageclass nfs-client</t>
-  </si>
-  <si>
-    <t>Edit NFS</t>
-  </si>
-  <si>
-    <t>kubectl patch pvc elibrary-db-pvc \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -n &lt;namespace&gt; \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -p '{"spec": {"resources": {"requests": {"storage": "20Gi"}}}}'</t>
-  </si>
-  <si>
-    <t>Patch PVC Storage Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add allowVolumeExpansion: true
-</t>
-  </si>
-  <si>
-    <t>Disable error Iframe.js adminLte</t>
-  </si>
-  <si>
-    <t>localStorage.setItem('AdminLTE:IFrame:Options',JSON.stringify({autoIframeMode:false,autoItemActive:false}))</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>nginx.ingress.kubernetes.io/auth-url : https://jalaera.com/services/account/api/user</t>
-  </si>
-  <si>
-    <t>nginx.ingress.kubernetes.io/server-snippet : set $auth_status ""; set $auth_header "";</t>
-  </si>
-  <si>
-    <t>nginx.ingress.kubernetes.io/auth-signin : https://jalaera.com/services/account/login</t>
-  </si>
-  <si>
-    <t>NGINX Ingress Auth Anotations</t>
-  </si>
-  <si>
-    <t>Get deadlock list</t>
-  </si>
-  <si>
-    <t>Kill deadlock list</t>
-  </si>
-  <si>
-    <t>SELECT pg_terminate_backend(blocking_locks.pid)
-FROM pg_locks blocked_locks
-JOIN pg_stat_activity blocked ON blocked_locks.pid = blocked.pid
-JOIN pg_locks blocking_locks
-  ON blocked_locks.locktype = blocking_locks.locktype
-  AND blocked_locks.database IS NOT DISTINCT FROM blocking_locks.database
-  AND blocked_locks.relation IS NOT DISTINCT FROM blocking_locks.relation
-  AND blocked_locks.page IS NOT DISTINCT FROM blocking_locks.page
-  AND blocked_locks.tuple IS NOT DISTINCT FROM blocking_locks.tuple
-  AND blocked_locks.virtualxid IS NOT DISTINCT FROM blocking_locks.virtualxid
-  AND blocked_locks.transactionid IS NOT DISTINCT FROM blocking_locks.transactionid
-  AND blocked_locks.classid IS NOT DISTINCT FROM blocking_locks.classid
-  AND blocked_locks.objid IS NOT DISTINCT FROM blocking_locks.objid
-  AND blocked_locks.objsubid IS NOT DISTINCT FROM blocking_locks.objsubid
-  AND blocked_locks.pid != blocking_locks.pid
-JOIN pg_stat_activity blocking ON blocking_locks.pid = blocking.pid
-WHERE blocked_locks.granted = false;</t>
-  </si>
-  <si>
-    <t>SELECT
-  blocked.pid     AS blocked_pid,
-  blocked.query   AS blocked_query,
-  blocking.pid    AS blocking_pid,
-  blocking.query  AS blocking_query
-FROM pg_locks blocked_locks
-JOIN pg_stat_activity blocked ON blocked_locks.pid = blocked.pid
-JOIN pg_locks blocking_locks
-  ON blocked_locks.locktype = blocking_locks.locktype
-  AND blocked_locks.database IS NOT DISTINCT FROM blocking_locks.database
-  AND blocked_locks.relation IS NOT DISTINCT FROM blocking_locks.relation
-  AND blocked_locks.page IS NOT DISTINCT FROM blocking_locks.page
-  AND blocked_locks.tuple IS NOT DISTINCT FROM blocking_locks.tuple
-  AND blocked_locks.virtualxid IS NOT DISTINCT FROM blocking_locks.virtualxid
-  AND blocked_locks.transactionid IS NOT DISTINCT FROM blocking_locks.transactionid
-  AND blocked_locks.classid IS NOT DISTINCT FROM blocking_locks.classid
-  AND blocked_locks.objid IS NOT DISTINCT FROM blocking_locks.objid
-  AND blocked_locks.objsubid IS NOT DISTINCT FROM blocking_locks.objsubid
-  AND blocked_locks.pid != blocking_locks.pid
-JOIN pg_stat_activity blocking ON blocking_locks.pid = blocking.pid;</t>
-  </si>
-  <si>
-    <t>REINDEX INDEX notifications_pkey;</t>
-  </si>
-  <si>
-    <t>Reindex corrupt indexed</t>
-  </si>
-  <si>
-    <t>kubectl apply -n k8s-api-elibrary -f - &lt;&lt;EOF
-apiVersion: v1
-kind: Secret
-metadata:
-  name: k8s-api-elibrary-sa-token
-  namespace: k8s-api-elibrary
-  annotations:
-    kubernetes.io/service-account.name: k8s-api-elibrary-sa
-type: kubernetes.io/service-account-token
-EOF</t>
-  </si>
-  <si>
-    <t>Add domain in jenkins credentials</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">under the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stores scoped to Jenkins</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> section, chose in dropdown global and select add domain</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create token github for deployment and save in jenkins credential and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>copy id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gitCred</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jenkinsfile</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">get token first, and copy token and save in jenkins, and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">copy id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">secret jenkins </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for k8sCredential</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jenkinsfile</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Copy </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>crt namespace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for deployment from jenkins to kubernetes</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">kubectl create rolebinding k8s-api-elibrary-admin \
-  --clusterrole=admin \
-  --serviceaccount=k8s-api-elibrary:k8s-api-elibrary-sa \
-  -n k8s-api-elibrary
-</t>
-  </si>
-  <si>
-    <t>Add Role Admin for Service Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kubectl create serviceaccount cluster-admin-sa -n kube-system
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kubectl create clusterrolebinding cluster-admin-sa-binding \
-  --clusterrole=cluster-admin \
-  --serviceaccount=kube-system:cluster-admin-sa
-</t>
-  </si>
-  <si>
-    <t>Create Role For Admin All Namespace</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Get Service Account Token </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">For Create Credentials Jenkins And </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Copy ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">secret jenkins </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for k8sCredential </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jenkinsfile</t>
-    </r>
-  </si>
-  <si>
-    <t>Create Service Account For All Namespace</t>
-  </si>
-  <si>
-    <t>kubectl apply -n kube-system -f - &lt;&lt;EOF
-apiVersion: v1
-kind: Secret
-metadata:
-  name: cluster-admin-sa-token
-  namespace: kube-system
-  annotations:
-    kubernetes.io/service-account.name: cluster-admin-sa
-type: kubernetes.io/service-account-token
-EOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kubectl get secret k8s-api-elibrary-sa-token -n k8s-api-elibrary -o jsonpath='{.data.token}' | base64 -d | awk -F'&gt;' '{print $1}'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kubectl get secret cluster-admin-sa-token \
-  -n kube-system \
-  -o jsonpath='{.data.token}' | base64 -d | awk -F'&gt;' '{print $1}'
-</t>
-  </si>
-  <si>
-    <t>Create token permanent</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create config </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>connect-offsets</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">kafka-topics \
-  --bootstrap-server kafka-0.kafka-headless.k8s-kafka.svc.cluster.local:9092 \
-  --create \
-  --topic connect-offsets \
-  --partitions 25 \
-  --replication-factor 1 \
-  --config cleanup.policy=compact
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kafka-topics \
-  --bootstrap-server kafka-0.kafka-headless.k8s-kafka.svc.cluster.local:9092 \
-  --create \
-  --topic connect-status \
-  --partitions 5 \
-  --replication-factor 1 \
-  --config cleanup.policy=compact
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create config </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>connect-status</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">curl -X POST http://localhost:8083/connectors \
-  -H "Content-Type: application/json" \
-  -d '{
-    "name": "source-jalaauthv2",
-    "config": {
-      "connector.class": "io.confluent.connect.jdbc.JdbcSourceConnector",
-      "timestamp.column.name": "updated_at",
-      "dialect.name": "MySqlDatabaseDialect",
-      "incrementing.column.name": "id",
-      "connection.password": "dbjalaauth2",
-      "validate.non.null": "false",
-      "tasks.max": "1",
-      "connection.attempts": "10",
-      "table.types": "TABLE",
-      "table.whitelist": "dbjalaauth2.dbauth_users,dbjalaauth2.dbauth_oauth_clients",
-      "mode": "timestamp+incrementing",
-      "topic.prefix": "source-jalaauthv2",
-      "connection.max.retries": "100",
-      "connection.user": "dbjalaauth2",
-      "poll.interval.ms": "2000",
-      "value.converter.schemas.enable": "true",
-      "name": "source-jalaauthv2",
-      "numeric.mapping": "best_fit",
-      "connection.url": "jdbc:mysql://jalaauth2-db-0.jalaauth2-db.k8s-rbac.svc.cluster.local:3306/dbjalaauth2",
-      "value.converter": "org.apache.kafka.connect.json.JsonConverter",
-      "key.converter": "org.apache.kafka.connect.storage.StringConverter",
-      "pk.mode": "record_key",
-      "pk.fields": "id"
-    }
-  }'
-</t>
-  </si>
-  <si>
-    <t>Sink Connector</t>
-  </si>
-  <si>
-    <t>Source Connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curl -X POST http://localhost:8083/connectors \
-  -H "Content-Type: application/json" \
-  -d '{
-    "name": "sink-dbjalaauth2-to-dbelibrary",
-    "config": {
-      "connector.class": "io.confluent.connect.jdbc.JdbcSinkConnector",
-      "table.name.format": "dbjalaauth2_auth_users",
-      "connection.password": "test1234",
-      "validate.non.null": "false",
-      "tasks.max": "1",
-      "topics": "source-jalaauthv2dbauth_users",
-      "delete.enabled": "false",
-      "auto.evolve": "true",
-      "connection.user": "user_dbelibrary",
-      "value.converter.schemas.enable": "true",
-      "name": "sink-dbjalaauth2-to-dbelibrary",
-      "auto.create": "true",
-      "connection.url": "jdbc:postgresql://elibrary-db-0.elibrary-db-service.k8s-api-elibrary.svc.cluster.local:5432/dbelibrary",
-      "value.converter": "org.apache.kafka.connect.json.JsonConverter",
-      "insert.mode": "upsert",
-      "key.converter": "org.apache.kafka.connect.storage.StringConverter",
-      "pk.mode": "record_value",
-      "pk.fields": "id"
-    }
-  }'
-</t>
-  </si>
-  <si>
-    <t>sofwadev@123sofwadev@123</t>
-  </si>
-  <si>
-    <t>sofwa</t>
-  </si>
-  <si>
-    <t>Host / Apps</t>
-  </si>
-  <si>
-    <t>sofwasofwa@123</t>
-  </si>
-  <si>
-    <t>Portainer (jalaera.com, dev-jalaera.com)</t>
-  </si>
-  <si>
-    <t>App Jenkins</t>
-  </si>
-  <si>
-    <t>shofwa_dev</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.26.11.9 </t>
-  </si>
-  <si>
-    <t>jalaniagaelok.web.id</t>
-  </si>
-  <si>
-    <t>usrd</t>
-  </si>
-  <si>
-    <t>sA!M_62p$@</t>
-  </si>
-  <si>
-    <t>PPK</t>
-  </si>
-  <si>
-    <t>oprcontrold.ppk</t>
-  </si>
-  <si>
-    <t>10.26.11.172</t>
-  </si>
-  <si>
-    <t>Seiko@quartz3</t>
-  </si>
-  <si>
-    <t>ticketing.jalaniagaelok.web.id</t>
-  </si>
-  <si>
-    <t>Portainer (jalanet.id)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Database </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oprcontrol.jalaniagaelok.web.id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User MySQL </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oprcontrol.jalaniagaelok.web.id</t>
-    </r>
-  </si>
-  <si>
-    <t>jenkins.jalaniagaelok.web.id</t>
-  </si>
-  <si>
-    <t>10.26.11.28</t>
-  </si>
-  <si>
-    <t>jalaera.com</t>
-  </si>
-  <si>
-    <t>User MySQL Production</t>
-  </si>
-  <si>
-    <t>10.26.11.7</t>
-  </si>
-  <si>
-    <t>courierpfm.jalaniagaelok.web.id</t>
-  </si>
-  <si>
-    <t>10.26.11.112</t>
-  </si>
-  <si>
-    <t>jpar.jalaniagaelok.web.id</t>
-  </si>
-  <si>
-    <t>10.26.11.111</t>
-  </si>
-  <si>
-    <t>192.168.132.82</t>
-  </si>
-  <si>
-    <t>developer</t>
-  </si>
-  <si>
-    <t>monyetloe</t>
-  </si>
-  <si>
-    <t>Server Developer 82</t>
-  </si>
-  <si>
-    <t>cors.jalaniagaelok.web.id</t>
-  </si>
-  <si>
-    <t>ub-appd.ppk</t>
-  </si>
-  <si>
-    <t>corsd.ppk</t>
-  </si>
-  <si>
-    <t>dsa.jalaniagaelok.web.id</t>
-  </si>
-  <si>
-    <t>dsa.ppk</t>
-  </si>
-  <si>
-    <t>elibrary.jalaniagaelok.web.id</t>
-  </si>
-  <si>
-    <t>elibrary_v2.ppk</t>
-  </si>
-  <si>
-    <t>stagingd.ppk</t>
-  </si>
-  <si>
-    <t>jenkinsd.ppk</t>
-  </si>
-  <si>
-    <t>jpard1.ppk</t>
-  </si>
-  <si>
-    <t>courierpfmd1.ppk</t>
-  </si>
-  <si>
-    <t>ticketingd.ppk</t>
-  </si>
-  <si>
-    <t>yesplus.jalaniagaelok.web.id</t>
-  </si>
-  <si>
-    <t>yesplus.ppk</t>
-  </si>
-  <si>
-    <t>authorize_oprctrlweb.ppk</t>
-  </si>
-  <si>
-    <t>test.jalaniagaelok.web.id</t>
-  </si>
-  <si>
-    <t>Contoh komposisi vue di github ms-hris-web branch developer</t>
-  </si>
-  <si>
-    <t>package.json, vue.config.js, main.js, app.js, app.scss</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-topics.sh --bootstrap-server localhost:9092 --list</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-topics.sh --bootstrap-server localhost:9092 --create --topic dborganization-dbvall-schemahistory-dbbranchingd --partitions 1 --replication-factor 1</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-topics.sh --bootstrap-server localhost:9092 --delete --topic source-regions-tables-all</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-console-consumer.sh --topic stream_urban_village_details_topic --from-beginning --bootstrap-server localhost:9092 --property print.key=true</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-acls.sh --bootstrap-server localhost:9092 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --add --allow-principal User:ksqldb_user \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --operation Read \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --topic source-regions-tables-subdistricts</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-console-consumer.sh --bootstrap-server localhost:9092 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --topic source-jalaauthv2dbauth_users --from-beginning \</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-connect-reset.sh --connector source-jalaauthv2 --to-earliest</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-console-consumer.sh --bootstrap-server localhost:9092 --topic dborganization-dbvall \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --property print.key=true --property print.value=true</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-acls.sh --bootstrap-server localhost:9092 --list | grep dborganization-schema-history</t>
+  </si>
+  <si>
+    <t>/usr/share/java/confluent-hub-client</t>
+  </si>
+  <si>
+    <t>ksql http://localhost:8088</t>
+  </si>
+  <si>
+    <t>jcustenborder-kafka-connect-transform-common-0.1.0.58</t>
+  </si>
+  <si>
+    <t>/usr/share/confluent-hub-components</t>
+  </si>
+  <si>
+    <t>confluent-hub install --no-prompt --component-dir /usr/share/java confluentinc/kafka-connect-transforms:latest</t>
+  </si>
+  <si>
+    <t>confluent-hub install --component-dir /usr/share/java jcustenborder/kafka-connect-transform-common:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alhamdulillah </t>
+  </si>
+  <si>
+    <t>docker cp storage/kafka-connect/jcustenborder-kafka-connect-transform-common-0.1.0.58</t>
+  </si>
+  <si>
+    <t>8d921de9c950c710bd2032d913dbd232dfa1c292ea0043426d5e83d4bb235d64:/usr/share/java/kafka-connect-jdbc/jcustenborder-kafka-connect-transform-common-0.1.0.58</t>
+  </si>
+  <si>
+    <t>curl -X GET "http://localhost:8193:8082/topics/source-regions-tables-all/partitions/0/messages"</t>
+  </si>
+  <si>
+    <t>-- delete file --</t>
+  </si>
+  <si>
+    <t>sudo docker exec --user root 8d921de9c950c710bd2032d913dbd232dfa1c292ea0043426d5e83d4bb235d64 rm /usr/share/java/kafka-connect-jdbc/kafka-connect-transform-common-0.1.0.58.jar</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-topics.sh --create --topic dborganization-schema-history --bootstrap-server localhost:9092 --partitions 1 --replication-factor 1</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-acls.sh --bootstrap-server localhost:9092 --add --allow-principal User:appuser --operation WRITE --topic dbz_schema_history</t>
+  </si>
+  <si>
+    <t>/opt/bitnami/kafka/bin/kafka-acls.sh --bootstrap-server localhost:9092 --list --topic dborganization-dbvall-schemahistory</t>
+  </si>
+  <si>
+    <t>curl -s localhost:8193/connector-plugins | jq</t>
   </si>
 </sst>
 </file>
@@ -8157,7 +8267,7 @@
     </row>
     <row r="405" spans="2:3" ht="333.5">
       <c r="B405" s="46" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>329</v>
@@ -8168,7 +8278,7 @@
         <v>327</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="408" spans="2:3">
@@ -8177,10 +8287,10 @@
     </row>
     <row r="409" spans="2:3" ht="72.5">
       <c r="B409" s="48" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C409" s="23" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="410" spans="2:3">
@@ -8189,10 +8299,10 @@
     </row>
     <row r="411" spans="2:3" ht="43.5">
       <c r="B411" s="46" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="412" spans="2:3">
@@ -8201,10 +8311,10 @@
     </row>
     <row r="413" spans="2:3">
       <c r="B413" s="47" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C413" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="414" spans="2:3">
@@ -8213,26 +8323,26 @@
     </row>
     <row r="415" spans="2:3" ht="29">
       <c r="B415" s="48" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C415" s="23" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="416" spans="2:3" ht="58">
       <c r="B416" s="48" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C416" s="23" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="417" spans="2:7" ht="145">
       <c r="B417" s="41" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C417" s="23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="418" spans="2:7">
@@ -8241,10 +8351,10 @@
     </row>
     <row r="419" spans="2:7" ht="58">
       <c r="B419" s="48" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C419" s="23" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="420" spans="2:7">
@@ -8276,7 +8386,7 @@
     </row>
     <row r="429" spans="2:7" ht="29">
       <c r="B429" s="16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C429" s="30" t="s">
         <v>498</v>
@@ -9444,23 +9554,23 @@
         <v>501</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="42" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="58">
       <c r="B3" s="42" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -9472,8 +9582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1726B2-043F-4F9C-A7D9-6122F0CC1D1C}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9490,103 +9600,103 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="F1" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="E1" s="52" t="s">
-        <v>682</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>683</v>
-      </c>
       <c r="G1" s="52" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="50" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="50" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E3" s="50" t="s">
+        <v>684</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>686</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="51" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C4" s="55">
         <v>30779</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="51" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C5" s="56">
         <v>30779</v>
       </c>
       <c r="D5" s="50" t="s">
+        <v>737</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>739</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="51" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="58" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C7" s="55">
         <v>21</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9594,32 +9704,32 @@
         <v>151</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="51" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="51" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C10" s="55">
         <v>3306</v>
@@ -9628,69 +9738,69 @@
         <v>53</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="57" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C11" s="55">
         <v>9022</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="57" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C12" s="55">
         <v>9022</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="57" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C13" s="55">
         <v>9022</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="51" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C14" s="55">
         <v>3306</v>
@@ -9704,147 +9814,147 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="57" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="57" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="51" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C17" s="55">
         <v>22</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="57" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C18" s="55">
         <v>9022</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="57" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C19" s="55">
         <v>9022</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="57" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C20" s="55">
         <v>9022</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="57" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C21" s="55">
         <v>9022</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="57" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C22" s="55">
         <v>22</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -9868,10 +9978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED613409-59F7-4B7A-B595-FACB16658F87}">
-  <dimension ref="B1:C66"/>
+  <dimension ref="B1:D118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9893,7 +10003,7 @@
         <v>503</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>538</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="409.5">
@@ -9901,12 +10011,12 @@
         <v>504</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>537</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>505</v>
@@ -10037,10 +10147,10 @@
     </row>
     <row r="32" spans="2:3" ht="116">
       <c r="B32" s="66" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -10073,10 +10183,10 @@
     </row>
     <row r="40" spans="2:3" ht="116">
       <c r="B40" s="66" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -10117,69 +10227,225 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="67" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="C51" s="51" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="68" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="C53" s="51" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="C54" s="51" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="29">
       <c r="C56" s="51" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="C58" s="51" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="159.5">
       <c r="B60" s="68" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="409.5">
       <c r="C62" s="51" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="130.5">
       <c r="B64" s="68" t="s">
+        <v>733</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="391.5">
+      <c r="C66" s="51" t="s">
         <v>735</v>
       </c>
-      <c r="C64" s="51" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" ht="391.5">
-      <c r="C66" s="51" t="s">
-        <v>737</v>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="51" t="s">
+        <v>790</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" s="51" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" s="51" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="C74" s="51" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" s="51" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="C77" s="51" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78" s="51" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" s="51" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="51" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="51" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="51" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="51" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="51" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="51" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="51" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="51" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="51" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="51" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="51" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="51" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" s="51" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="51" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" s="51" t="s">
+        <v>812</v>
+      </c>
+      <c r="D103" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105" s="51" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="51" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108" s="51" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" s="51" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112" s="51" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="51" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="51" t="s">
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -10212,7 +10478,7 @@
     </row>
     <row r="3" spans="2:3">
       <c r="C3" s="50" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -10226,7 +10492,7 @@
     </row>
     <row r="7" spans="2:3" ht="23.5">
       <c r="C7" s="60" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -10234,12 +10500,12 @@
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="61" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" s="62" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -10247,12 +10513,12 @@
     </row>
     <row r="12" spans="2:3">
       <c r="C12" s="61" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" s="61" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -10260,7 +10526,7 @@
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="61" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -10268,7 +10534,7 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="61" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -10282,7 +10548,7 @@
     </row>
     <row r="21" spans="3:3" ht="17.5">
       <c r="C21" s="63" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="3:3">
@@ -10290,7 +10556,7 @@
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="61" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="3:3">
@@ -10298,7 +10564,7 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="61" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -10306,7 +10572,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="61" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -10314,32 +10580,32 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="61" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="51" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="51" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="61" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="51" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="51" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -10374,7 +10640,7 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="50" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>73</v>
@@ -10412,7 +10678,7 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="50" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>78</v>
@@ -10425,12 +10691,12 @@
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="3:3">
@@ -10440,70 +10706,70 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="50" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="C39" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="C40" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="C43" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -10513,17 +10779,17 @@
     </row>
     <row r="45" spans="2:3">
       <c r="C45" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="C47" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="C48" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -10538,95 +10804,95 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="50" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="C56" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="C59" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="C60" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="88" spans="3:3">
@@ -10641,7 +10907,7 @@
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="93" spans="3:3">
@@ -10656,122 +10922,122 @@
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -10803,10 +11069,10 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="50" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -10816,32 +11082,32 @@
     </row>
     <row r="5" spans="2:3">
       <c r="C5" s="50" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="50" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="50" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" s="50" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" s="50" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="50" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -10851,47 +11117,47 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="50" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="50" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="50" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="50" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="50" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="50" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="50" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="50" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="50" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="3:3">
@@ -10901,101 +11167,101 @@
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="50" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="50" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="50" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="50" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="50" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="50" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="50" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="50" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="50" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="50" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="50" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="50" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="50" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" s="50" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D50" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" s="50" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D51" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" s="50" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D52" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54" s="50" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55" s="50" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -11022,47 +11288,47 @@
         <v>501</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="72.5">
       <c r="B2" s="70" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="71" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="290">
       <c r="B6" s="70" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="246.5">
       <c r="B8" s="72" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="50" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -11075,7 +11341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120CCC8B-7F77-4248-9B3B-6896FAFAD032}">
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -11090,28 +11356,28 @@
         <v>501</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="71" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="71" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -11120,43 +11386,43 @@
     <row r="8" spans="2:3" ht="29">
       <c r="B8" s="71"/>
       <c r="C8" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="71" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" s="12" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" s="12" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="71" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" s="12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -11184,23 +11450,23 @@
         <v>501</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="25">
       <c r="B2" s="66" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="66" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
